--- a/data/trans_orig/IP32A_2023-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/IP32A_2023-Estudios-trans_orig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B7DA9895-9A5D-4A9F-B009-03CB92AB158D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{51400062-E0E7-43C2-89AF-91FD4FC7C3E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{8D51DE00-0882-43A1-9E03-674CCCB9BCC4}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{26F2EB40-BBE5-4122-86E8-B7CA2D6D381D}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="795" uniqueCount="231">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="795" uniqueCount="232">
   <si>
     <t>Menores según su lugar de nacimiento / solo 2023 en 2023 (Tasa respuesta: 2,45%)</t>
   </si>
@@ -101,7 +101,7 @@
     <t>4,97%</t>
   </si>
   <si>
-    <t>37,38%</t>
+    <t>36,4%</t>
   </si>
   <si>
     <t>44,41%</t>
@@ -110,13 +110,13 @@
     <t>21,32%</t>
   </si>
   <si>
-    <t>79,99%</t>
+    <t>79,97%</t>
   </si>
   <si>
     <t>9,95%</t>
   </si>
   <si>
-    <t>39,22%</t>
+    <t>44,63%</t>
   </si>
   <si>
     <t>20,75%</t>
@@ -134,10 +134,7 @@
     <t>37,15%</t>
   </si>
   <si>
-    <t>4,49%</t>
-  </si>
-  <si>
-    <t>82,94%</t>
+    <t>79,85%</t>
   </si>
   <si>
     <t>53,5%</t>
@@ -146,19 +143,19 @@
     <t>28,55%</t>
   </si>
   <si>
-    <t>83,55%</t>
+    <t>76,84%</t>
   </si>
   <si>
     <t>41,57%</t>
   </si>
   <si>
-    <t>88,45%</t>
+    <t>85,41%</t>
   </si>
   <si>
     <t>19,39%</t>
   </si>
   <si>
-    <t>70,05%</t>
+    <t>64,55%</t>
   </si>
   <si>
     <t>Secundarios</t>
@@ -167,295 +164,307 @@
     <t>1,35%</t>
   </si>
   <si>
+    <t>8,93%</t>
+  </si>
+  <si>
+    <t>0,91%</t>
+  </si>
+  <si>
+    <t>5,54%</t>
+  </si>
+  <si>
+    <t>25,36%</t>
+  </si>
+  <si>
+    <t>74,6%</t>
+  </si>
+  <si>
+    <t>2,77%</t>
+  </si>
+  <si>
+    <t>19,81%</t>
+  </si>
+  <si>
+    <t>17,99%</t>
+  </si>
+  <si>
+    <t>1,02%</t>
+  </si>
+  <si>
+    <t>59,81%</t>
+  </si>
+  <si>
+    <t>8,3%</t>
+  </si>
+  <si>
+    <t>10,56%</t>
+  </si>
+  <si>
+    <t>58,87%</t>
+  </si>
+  <si>
+    <t>4,35%</t>
+  </si>
+  <si>
+    <t>23,31%</t>
+  </si>
+  <si>
+    <t>11,03%</t>
+  </si>
+  <si>
+    <t>44,72%</t>
+  </si>
+  <si>
+    <t>2,78%</t>
+  </si>
+  <si>
+    <t>18,39%</t>
+  </si>
+  <si>
+    <t>8,34%</t>
+  </si>
+  <si>
+    <t>0,94%</t>
+  </si>
+  <si>
+    <t>36,5%</t>
+  </si>
+  <si>
+    <t>8,88%</t>
+  </si>
+  <si>
+    <t>31,8%</t>
+  </si>
+  <si>
+    <t>57,41%</t>
+  </si>
+  <si>
+    <t>93,36%</t>
+  </si>
+  <si>
+    <t>24,72%</t>
+  </si>
+  <si>
+    <t>6,76%</t>
+  </si>
+  <si>
+    <t>58,49%</t>
+  </si>
+  <si>
+    <t>9,01%</t>
+  </si>
+  <si>
+    <t>36,88%</t>
+  </si>
+  <si>
+    <t>6,07%</t>
+  </si>
+  <si>
+    <t>29,51%</t>
+  </si>
+  <si>
+    <t>8,01%</t>
+  </si>
+  <si>
+    <t>5,25%</t>
+  </si>
+  <si>
+    <t>9,3%</t>
+  </si>
+  <si>
+    <t>31,37%</t>
+  </si>
+  <si>
+    <t>6,27%</t>
+  </si>
+  <si>
+    <t>21,76%</t>
+  </si>
+  <si>
+    <t>10,53%</t>
+  </si>
+  <si>
+    <t>7,32%</t>
+  </si>
+  <si>
+    <t>5,38%</t>
+  </si>
+  <si>
+    <t>29,04%</t>
+  </si>
+  <si>
+    <t>12,65%</t>
+  </si>
+  <si>
+    <t>60,3%</t>
+  </si>
+  <si>
     <t>7,75%</t>
   </si>
   <si>
-    <t>0,91%</t>
+    <t>25,92%</t>
+  </si>
+  <si>
+    <t>7,66%</t>
+  </si>
+  <si>
+    <t>40,83%</t>
+  </si>
+  <si>
+    <t>5,16%</t>
+  </si>
+  <si>
+    <t>28,96%</t>
+  </si>
+  <si>
+    <t>19,34%</t>
+  </si>
+  <si>
+    <t>58,59%</t>
+  </si>
+  <si>
+    <t>13,03%</t>
+  </si>
+  <si>
+    <t>44,9%</t>
+  </si>
+  <si>
+    <t>11,04%</t>
+  </si>
+  <si>
+    <t>52,51%</t>
+  </si>
+  <si>
+    <t>3,6%</t>
+  </si>
+  <si>
+    <t>18,27%</t>
+  </si>
+  <si>
+    <t>19,84%</t>
+  </si>
+  <si>
+    <t>5,6%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>36,25%</t>
+  </si>
+  <si>
+    <t>18,74%</t>
+  </si>
+  <si>
+    <t>13,49%</t>
+  </si>
+  <si>
+    <t>7,35%</t>
+  </si>
+  <si>
+    <t>74,97%</t>
+  </si>
+  <si>
+    <t>5,03%</t>
+  </si>
+  <si>
+    <t>33,29%</t>
+  </si>
+  <si>
+    <t>5,98%</t>
+  </si>
+  <si>
+    <t>22,76%</t>
+  </si>
+  <si>
+    <t>54,44%</t>
+  </si>
+  <si>
+    <t>14,8%</t>
+  </si>
+  <si>
+    <t>93,44%</t>
+  </si>
+  <si>
+    <t>32,26%</t>
+  </si>
+  <si>
+    <t>7,49%</t>
+  </si>
+  <si>
+    <t>74,04%</t>
+  </si>
+  <si>
+    <t>31,1%</t>
+  </si>
+  <si>
+    <t>92,69%</t>
+  </si>
+  <si>
+    <t>10,07%</t>
+  </si>
+  <si>
+    <t>38,32%</t>
+  </si>
+  <si>
+    <t>18,64%</t>
+  </si>
+  <si>
+    <t>2,34%</t>
+  </si>
+  <si>
+    <t>57,02%</t>
+  </si>
+  <si>
+    <t>12,39%</t>
+  </si>
+  <si>
+    <t>51,67%</t>
+  </si>
+  <si>
+    <t>7,34%</t>
+  </si>
+  <si>
+    <t>39,73%</t>
+  </si>
+  <si>
+    <t>54,19%</t>
+  </si>
+  <si>
+    <t>95,67%</t>
+  </si>
+  <si>
+    <t>22,07%</t>
+  </si>
+  <si>
+    <t>71,99%</t>
   </si>
   <si>
     <t>7,36%</t>
   </si>
   <si>
-    <t>25,36%</t>
-  </si>
-  <si>
-    <t>72,67%</t>
-  </si>
-  <si>
-    <t>2,77%</t>
-  </si>
-  <si>
-    <t>17,26%</t>
-  </si>
-  <si>
-    <t>17,99%</t>
-  </si>
-  <si>
-    <t>0,97%</t>
-  </si>
-  <si>
-    <t>56,2%</t>
-  </si>
-  <si>
-    <t>9,21%</t>
-  </si>
-  <si>
-    <t>10,56%</t>
-  </si>
-  <si>
-    <t>53,05%</t>
-  </si>
-  <si>
-    <t>4,35%</t>
-  </si>
-  <si>
-    <t>22,09%</t>
-  </si>
-  <si>
-    <t>11,03%</t>
-  </si>
-  <si>
-    <t>45,8%</t>
-  </si>
-  <si>
-    <t>2,78%</t>
-  </si>
-  <si>
-    <t>18,95%</t>
-  </si>
-  <si>
-    <t>8,34%</t>
-  </si>
-  <si>
-    <t>0,92%</t>
-  </si>
-  <si>
-    <t>35,24%</t>
-  </si>
-  <si>
-    <t>8,88%</t>
-  </si>
-  <si>
-    <t>31,85%</t>
-  </si>
-  <si>
-    <t>57,41%</t>
-  </si>
-  <si>
-    <t>94,05%</t>
-  </si>
-  <si>
-    <t>24,72%</t>
-  </si>
-  <si>
-    <t>7,05%</t>
-  </si>
-  <si>
-    <t>60,29%</t>
-  </si>
-  <si>
-    <t>9,01%</t>
-  </si>
-  <si>
-    <t>38,82%</t>
-  </si>
-  <si>
-    <t>6,07%</t>
-  </si>
-  <si>
-    <t>8,65%</t>
-  </si>
-  <si>
-    <t>5,1%</t>
-  </si>
-  <si>
-    <t>9,3%</t>
-  </si>
-  <si>
-    <t>32,83%</t>
-  </si>
-  <si>
-    <t>6,27%</t>
-  </si>
-  <si>
-    <t>24,73%</t>
-  </si>
-  <si>
-    <t>10,53%</t>
-  </si>
-  <si>
-    <t>7,32%</t>
-  </si>
-  <si>
-    <t>5,38%</t>
-  </si>
-  <si>
-    <t>25,03%</t>
-  </si>
-  <si>
-    <t>12,65%</t>
-  </si>
-  <si>
-    <t>56,1%</t>
-  </si>
-  <si>
-    <t>26,56%</t>
-  </si>
-  <si>
-    <t>7,66%</t>
-  </si>
-  <si>
-    <t>47,97%</t>
-  </si>
-  <si>
-    <t>5,16%</t>
-  </si>
-  <si>
-    <t>24,83%</t>
-  </si>
-  <si>
-    <t>19,34%</t>
-  </si>
-  <si>
-    <t>63,43%</t>
-  </si>
-  <si>
-    <t>13,03%</t>
-  </si>
-  <si>
-    <t>46,32%</t>
-  </si>
-  <si>
-    <t>11,04%</t>
-  </si>
-  <si>
-    <t>58,24%</t>
-  </si>
-  <si>
-    <t>3,6%</t>
-  </si>
-  <si>
-    <t>20,37%</t>
-  </si>
-  <si>
-    <t>18,05%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>36,25%</t>
-  </si>
-  <si>
-    <t>18,74%</t>
-  </si>
-  <si>
-    <t>13,49%</t>
-  </si>
-  <si>
-    <t>7,35%</t>
-  </si>
-  <si>
-    <t>74,97%</t>
-  </si>
-  <si>
-    <t>5,03%</t>
-  </si>
-  <si>
-    <t>28,74%</t>
-  </si>
-  <si>
-    <t>5,98%</t>
-  </si>
-  <si>
-    <t>54,44%</t>
-  </si>
-  <si>
-    <t>12,79%</t>
-  </si>
-  <si>
-    <t>87,25%</t>
-  </si>
-  <si>
-    <t>32,26%</t>
-  </si>
-  <si>
-    <t>7,07%</t>
-  </si>
-  <si>
-    <t>75,8%</t>
-  </si>
-  <si>
-    <t>31,1%</t>
-  </si>
-  <si>
-    <t>92,69%</t>
-  </si>
-  <si>
-    <t>10,07%</t>
-  </si>
-  <si>
-    <t>35,01%</t>
-  </si>
-  <si>
-    <t>18,64%</t>
-  </si>
-  <si>
-    <t>2,8%</t>
-  </si>
-  <si>
-    <t>62,21%</t>
-  </si>
-  <si>
-    <t>12,39%</t>
-  </si>
-  <si>
-    <t>53,35%</t>
-  </si>
-  <si>
-    <t>7,34%</t>
-  </si>
-  <si>
-    <t>39,69%</t>
-  </si>
-  <si>
-    <t>54,19%</t>
-  </si>
-  <si>
-    <t>95,67%</t>
-  </si>
-  <si>
-    <t>22,07%</t>
-  </si>
-  <si>
-    <t>70,34%</t>
-  </si>
-  <si>
     <t>75,03%</t>
   </si>
   <si>
     <t>3,0%</t>
   </si>
   <si>
-    <t>20,72%</t>
+    <t>18,9%</t>
   </si>
   <si>
     <t>18,07%</t>
   </si>
   <si>
-    <t>64,23%</t>
+    <t>63,03%</t>
   </si>
   <si>
     <t>10,71%</t>
   </si>
   <si>
-    <t>51,33%</t>
-  </si>
-  <si>
     <t>2,03%</t>
   </si>
   <si>
-    <t>7,68%</t>
+    <t>7,84%</t>
   </si>
   <si>
     <t>7,93%</t>
@@ -464,217 +473,211 @@
     <t>1,17%</t>
   </si>
   <si>
-    <t>3,83%</t>
+    <t>4,13%</t>
   </si>
   <si>
     <t>20,11%</t>
   </si>
   <si>
-    <t>1,12%</t>
-  </si>
-  <si>
-    <t>57,8%</t>
+    <t>65,53%</t>
   </si>
   <si>
     <t>5,5%</t>
   </si>
   <si>
-    <t>1,26%</t>
-  </si>
-  <si>
-    <t>15,08%</t>
+    <t>1,22%</t>
+  </si>
+  <si>
+    <t>15,68%</t>
   </si>
   <si>
     <t>13,92%</t>
   </si>
   <si>
-    <t>2,76%</t>
-  </si>
-  <si>
-    <t>44,35%</t>
+    <t>2,87%</t>
+  </si>
+  <si>
+    <t>41,68%</t>
   </si>
   <si>
     <t>1,01%</t>
   </si>
   <si>
-    <t>6,74%</t>
+    <t>7,16%</t>
   </si>
   <si>
     <t>5,24%</t>
   </si>
   <si>
-    <t>27,68%</t>
+    <t>30,7%</t>
   </si>
   <si>
     <t>2,81%</t>
   </si>
   <si>
-    <t>13,55%</t>
+    <t>13,23%</t>
   </si>
   <si>
     <t>12,35%</t>
   </si>
   <si>
-    <t>1,16%</t>
-  </si>
-  <si>
-    <t>40,47%</t>
+    <t>1,2%</t>
+  </si>
+  <si>
+    <t>40,08%</t>
   </si>
   <si>
     <t>21,05%</t>
   </si>
   <si>
-    <t>7,04%</t>
-  </si>
-  <si>
-    <t>53,18%</t>
+    <t>6,37%</t>
+  </si>
+  <si>
+    <t>49,77%</t>
   </si>
   <si>
     <t>16,03%</t>
   </si>
   <si>
-    <t>6,51%</t>
-  </si>
-  <si>
-    <t>31,88%</t>
+    <t>6,18%</t>
+  </si>
+  <si>
+    <t>31,73%</t>
   </si>
   <si>
     <t>10,99%</t>
   </si>
   <si>
-    <t>2,39%</t>
-  </si>
-  <si>
-    <t>35,78%</t>
+    <t>28,65%</t>
   </si>
   <si>
     <t>31,24%</t>
   </si>
   <si>
-    <t>5,79%</t>
-  </si>
-  <si>
-    <t>68,88%</t>
+    <t>5,13%</t>
+  </si>
+  <si>
+    <t>73,51%</t>
   </si>
   <si>
     <t>19,57%</t>
   </si>
   <si>
-    <t>7,38%</t>
-  </si>
-  <si>
-    <t>45,51%</t>
+    <t>6,7%</t>
+  </si>
+  <si>
+    <t>42,55%</t>
   </si>
   <si>
     <t>12,6%</t>
   </si>
   <si>
-    <t>1,03%</t>
-  </si>
-  <si>
-    <t>37,02%</t>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>35,54%</t>
   </si>
   <si>
     <t>10,15%</t>
   </si>
   <si>
-    <t>45,82%</t>
+    <t>45,69%</t>
   </si>
   <si>
     <t>11,56%</t>
   </si>
   <si>
-    <t>3,09%</t>
-  </si>
-  <si>
-    <t>31,32%</t>
-  </si>
-  <si>
-    <t>6,33%</t>
+    <t>3,18%</t>
+  </si>
+  <si>
+    <t>28,04%</t>
+  </si>
+  <si>
+    <t>6,54%</t>
   </si>
   <si>
     <t>3,38%</t>
   </si>
   <si>
-    <t>19,58%</t>
+    <t>16,65%</t>
   </si>
   <si>
     <t>2,02%</t>
   </si>
   <si>
-    <t>8,47%</t>
+    <t>7,91%</t>
   </si>
   <si>
     <t>7,01%</t>
   </si>
   <si>
-    <t>22,42%</t>
+    <t>22,88%</t>
   </si>
   <si>
     <t>4,04%</t>
   </si>
   <si>
-    <t>14,68%</t>
+    <t>14,73%</t>
   </si>
   <si>
     <t>7,48%</t>
   </si>
   <si>
-    <t>38,2%</t>
+    <t>37,63%</t>
   </si>
   <si>
     <t>4,31%</t>
   </si>
   <si>
-    <t>18,79%</t>
+    <t>23,59%</t>
   </si>
   <si>
     <t>4,05%</t>
   </si>
   <si>
-    <t>19,81%</t>
+    <t>23,26%</t>
   </si>
   <si>
     <t>6,28%</t>
   </si>
   <si>
-    <t>33,0%</t>
+    <t>32,29%</t>
   </si>
   <si>
     <t>4,99%</t>
   </si>
   <si>
-    <t>16,97%</t>
+    <t>16,6%</t>
   </si>
   <si>
     <t>5,77%</t>
   </si>
   <si>
-    <t>29,68%</t>
+    <t>31,52%</t>
   </si>
   <si>
     <t>3,33%</t>
   </si>
   <si>
-    <t>17,82%</t>
+    <t>17,69%</t>
   </si>
   <si>
     <t>15,59%</t>
   </si>
   <si>
-    <t>1,89%</t>
-  </si>
-  <si>
-    <t>47,9%</t>
+    <t>1,32%</t>
+  </si>
+  <si>
+    <t>50,57%</t>
   </si>
   <si>
     <t>8,98%</t>
   </si>
   <si>
-    <t>0,69%</t>
-  </si>
-  <si>
-    <t>30,79%</t>
+    <t>0,77%</t>
+  </si>
+  <si>
+    <t>31,27%</t>
   </si>
   <si>
     <t>7,61%</t>
@@ -683,49 +686,49 @@
     <t>5,48%</t>
   </si>
   <si>
-    <t>29,23%</t>
+    <t>29,18%</t>
   </si>
   <si>
     <t>2,32%</t>
   </si>
   <si>
-    <t>16,47%</t>
+    <t>12,11%</t>
   </si>
   <si>
     <t>1,38%</t>
   </si>
   <si>
-    <t>13,8%</t>
+    <t>9,12%</t>
   </si>
   <si>
     <t>0,58%</t>
   </si>
   <si>
-    <t>3,84%</t>
+    <t>3,7%</t>
   </si>
   <si>
     <t>4,94%</t>
   </si>
   <si>
-    <t>26,24%</t>
+    <t>26,87%</t>
   </si>
   <si>
     <t>2,09%</t>
   </si>
   <si>
-    <t>11,22%</t>
+    <t>11,95%</t>
   </si>
   <si>
     <t>5,37%</t>
   </si>
   <si>
-    <t>27,06%</t>
+    <t>29,45%</t>
   </si>
   <si>
     <t>2,28%</t>
   </si>
   <si>
-    <t>12,25%</t>
+    <t>13,33%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
@@ -1140,7 +1143,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{17136DDC-79DA-48C5-9D33-F91529551E22}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F84EE4B3-FFF4-4EBE-A2D4-29DDBF3B42AE}">
   <dimension ref="A1:Q89"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2285,10 +2288,10 @@
         <v>31</v>
       </c>
       <c r="P24" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q24" s="7" t="s">
         <v>32</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -2354,7 +2357,7 @@
         <v>913</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F26" s="7" t="s">
         <v>11</v>
@@ -2384,13 +2387,13 @@
         <v>913</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q26" s="7" t="s">
         <v>35</v>
-      </c>
-      <c r="P26" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2879,13 +2882,13 @@
         <v>620</v>
       </c>
       <c r="J36" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="K36" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L36" s="7" t="s">
         <v>37</v>
-      </c>
-      <c r="K36" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="L36" s="7" t="s">
-        <v>38</v>
       </c>
       <c r="M36" s="7">
         <v>1</v>
@@ -2894,13 +2897,13 @@
         <v>620</v>
       </c>
       <c r="O36" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="P36" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q36" s="7" t="s">
         <v>39</v>
-      </c>
-      <c r="P36" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q36" s="7" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -2956,7 +2959,7 @@
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A38" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B38" s="5">
         <v>2022</v>
@@ -2968,13 +2971,13 @@
         <v>159</v>
       </c>
       <c r="E38" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="F38" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G38" s="7" t="s">
         <v>42</v>
-      </c>
-      <c r="F38" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G38" s="7" t="s">
-        <v>43</v>
       </c>
       <c r="H38" s="7">
         <v>0</v>
@@ -2998,13 +3001,13 @@
         <v>159</v>
       </c>
       <c r="O38" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="P38" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q38" s="7" t="s">
         <v>44</v>
-      </c>
-      <c r="P38" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q38" s="7" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -3019,13 +3022,13 @@
         <v>2998</v>
       </c>
       <c r="E39" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="F39" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G39" s="7" t="s">
         <v>46</v>
-      </c>
-      <c r="F39" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G39" s="7" t="s">
-        <v>47</v>
       </c>
       <c r="H39" s="7">
         <v>1</v>
@@ -3034,13 +3037,13 @@
         <v>159</v>
       </c>
       <c r="J39" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="K39" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L39" s="7" t="s">
         <v>48</v>
-      </c>
-      <c r="K39" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="L39" s="7" t="s">
-        <v>49</v>
       </c>
       <c r="M39" s="7">
         <v>3</v>
@@ -3049,13 +3052,13 @@
         <v>3156</v>
       </c>
       <c r="O39" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="P39" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="P39" s="7" t="s">
+      <c r="Q39" s="7" t="s">
         <v>51</v>
-      </c>
-      <c r="Q39" s="7" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
@@ -3070,13 +3073,13 @@
         <v>159</v>
       </c>
       <c r="E40" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F40" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H40" s="7">
         <v>1</v>
@@ -3085,13 +3088,13 @@
         <v>605</v>
       </c>
       <c r="J40" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="K40" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L40" s="7" t="s">
         <v>54</v>
-      </c>
-      <c r="K40" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="L40" s="7" t="s">
-        <v>55</v>
       </c>
       <c r="M40" s="7">
         <v>2</v>
@@ -3100,13 +3103,13 @@
         <v>764</v>
       </c>
       <c r="O40" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="P40" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q40" s="7" t="s">
         <v>56</v>
-      </c>
-      <c r="P40" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q40" s="7" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
@@ -3121,13 +3124,13 @@
         <v>1304</v>
       </c>
       <c r="E41" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="F41" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G41" s="7" t="s">
         <v>58</v>
-      </c>
-      <c r="F41" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G41" s="7" t="s">
-        <v>59</v>
       </c>
       <c r="H41" s="7">
         <v>1</v>
@@ -3136,13 +3139,13 @@
         <v>159</v>
       </c>
       <c r="J41" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="K41" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L41" s="7" t="s">
         <v>60</v>
-      </c>
-      <c r="K41" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="L41" s="7" t="s">
-        <v>61</v>
       </c>
       <c r="M41" s="7">
         <v>3</v>
@@ -3151,13 +3154,13 @@
         <v>1464</v>
       </c>
       <c r="O41" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="P41" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="P41" s="7" t="s">
+      <c r="Q41" s="7" t="s">
         <v>63</v>
-      </c>
-      <c r="Q41" s="7" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
@@ -3172,13 +3175,13 @@
         <v>1050</v>
       </c>
       <c r="E42" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="F42" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G42" s="7" t="s">
         <v>65</v>
-      </c>
-      <c r="F42" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G42" s="7" t="s">
-        <v>66</v>
       </c>
       <c r="H42" s="7">
         <v>2</v>
@@ -3187,13 +3190,13 @@
         <v>3288</v>
       </c>
       <c r="J42" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="K42" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L42" s="7" t="s">
         <v>67</v>
-      </c>
-      <c r="K42" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="L42" s="7" t="s">
-        <v>68</v>
       </c>
       <c r="M42" s="7">
         <v>4</v>
@@ -3202,13 +3205,13 @@
         <v>4338</v>
       </c>
       <c r="O42" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="P42" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="P42" s="7" t="s">
+      <c r="Q42" s="7" t="s">
         <v>70</v>
-      </c>
-      <c r="Q42" s="7" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
@@ -3223,13 +3226,13 @@
         <v>1065</v>
       </c>
       <c r="E43" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="F43" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G43" s="7" t="s">
         <v>72</v>
-      </c>
-      <c r="F43" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G43" s="7" t="s">
-        <v>73</v>
       </c>
       <c r="H43" s="7">
         <v>0</v>
@@ -3253,13 +3256,13 @@
         <v>1065</v>
       </c>
       <c r="O43" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="P43" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q43" s="7" t="s">
         <v>74</v>
-      </c>
-      <c r="P43" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q43" s="7" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.3">
@@ -3274,7 +3277,7 @@
         <v>159</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F44" s="7" t="s">
         <v>11</v>
@@ -3304,7 +3307,7 @@
         <v>159</v>
       </c>
       <c r="O44" s="7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="P44" s="7" t="s">
         <v>11</v>
@@ -3457,13 +3460,13 @@
         <v>1360</v>
       </c>
       <c r="O47" s="7" t="s">
-        <v>43</v>
+        <v>87</v>
       </c>
       <c r="P47" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q47" s="7" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.3">
@@ -3478,13 +3481,13 @@
         <v>906</v>
       </c>
       <c r="E48" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="F48" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G48" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="H48" s="7">
         <v>0</v>
@@ -3508,13 +3511,13 @@
         <v>906</v>
       </c>
       <c r="O48" s="7" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="P48" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q48" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="49" spans="1:17" x14ac:dyDescent="0.3">
@@ -3529,13 +3532,13 @@
         <v>2287</v>
       </c>
       <c r="E49" s="7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="F49" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G49" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="H49" s="7">
         <v>0</v>
@@ -3559,13 +3562,13 @@
         <v>2287</v>
       </c>
       <c r="O49" s="7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="P49" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q49" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="50" spans="1:17" x14ac:dyDescent="0.3">
@@ -3595,13 +3598,13 @@
         <v>633</v>
       </c>
       <c r="J50" s="7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="K50" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L50" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="M50" s="7">
         <v>1</v>
@@ -3610,13 +3613,13 @@
         <v>633</v>
       </c>
       <c r="O50" s="7" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="P50" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q50" s="7" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="51" spans="1:17" x14ac:dyDescent="0.3">
@@ -3646,13 +3649,13 @@
         <v>159</v>
       </c>
       <c r="J51" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K51" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L51" s="7" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="M51" s="7">
         <v>1</v>
@@ -3661,13 +3664,13 @@
         <v>159</v>
       </c>
       <c r="O51" s="7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="P51" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q51" s="7" t="s">
-        <v>83</v>
+        <v>102</v>
       </c>
     </row>
     <row r="52" spans="1:17" x14ac:dyDescent="0.3">
@@ -3825,7 +3828,7 @@
     </row>
     <row r="55" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A55" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B55" s="5">
         <v>2022</v>
@@ -3843,7 +3846,7 @@
         <v>12</v>
       </c>
       <c r="G55" s="7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="H55" s="7">
         <v>0</v>
@@ -3858,7 +3861,7 @@
         <v>12</v>
       </c>
       <c r="L55" s="7" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="M55" s="7">
         <v>0</v>
@@ -3873,7 +3876,7 @@
         <v>12</v>
       </c>
       <c r="Q55" s="7" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
     </row>
     <row r="56" spans="1:17" x14ac:dyDescent="0.3">
@@ -3888,13 +3891,13 @@
         <v>159</v>
       </c>
       <c r="E56" s="7" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="F56" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G56" s="7" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="H56" s="7">
         <v>1</v>
@@ -3903,13 +3906,13 @@
         <v>159</v>
       </c>
       <c r="J56" s="7" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="K56" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L56" s="7" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="M56" s="7">
         <v>2</v>
@@ -3918,13 +3921,13 @@
         <v>318</v>
       </c>
       <c r="O56" s="7" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="P56" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q56" s="7" t="s">
-        <v>46</v>
+        <v>112</v>
       </c>
     </row>
     <row r="57" spans="1:17" x14ac:dyDescent="0.3">
@@ -3945,7 +3948,7 @@
         <v>12</v>
       </c>
       <c r="G57" s="7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="H57" s="7">
         <v>0</v>
@@ -3960,7 +3963,7 @@
         <v>12</v>
       </c>
       <c r="L57" s="7" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="M57" s="7">
         <v>0</v>
@@ -3975,7 +3978,7 @@
         <v>12</v>
       </c>
       <c r="Q57" s="7" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
     </row>
     <row r="58" spans="1:17" x14ac:dyDescent="0.3">
@@ -3996,7 +3999,7 @@
         <v>12</v>
       </c>
       <c r="G58" s="7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="H58" s="7">
         <v>4</v>
@@ -4005,13 +4008,13 @@
         <v>1716</v>
       </c>
       <c r="J58" s="7" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="K58" s="7" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="L58" s="7" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="M58" s="7">
         <v>4</v>
@@ -4020,13 +4023,13 @@
         <v>1717</v>
       </c>
       <c r="O58" s="7" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="P58" s="7" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="Q58" s="7" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
     </row>
     <row r="59" spans="1:17" x14ac:dyDescent="0.3">
@@ -4041,13 +4044,13 @@
         <v>674</v>
       </c>
       <c r="E59" s="7" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="F59" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G59" s="7" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="H59" s="7">
         <v>2</v>
@@ -4056,13 +4059,13 @@
         <v>318</v>
       </c>
       <c r="J59" s="7" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="K59" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L59" s="7" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="M59" s="7">
         <v>3</v>
@@ -4071,13 +4074,13 @@
         <v>992</v>
       </c>
       <c r="O59" s="7" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="P59" s="7" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="Q59" s="7" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
     </row>
     <row r="60" spans="1:17" x14ac:dyDescent="0.3">
@@ -4098,7 +4101,7 @@
         <v>12</v>
       </c>
       <c r="G60" s="7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="H60" s="7">
         <v>0</v>
@@ -4113,7 +4116,7 @@
         <v>12</v>
       </c>
       <c r="L60" s="7" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="M60" s="7">
         <v>0</v>
@@ -4128,7 +4131,7 @@
         <v>12</v>
       </c>
       <c r="Q60" s="7" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
     </row>
     <row r="61" spans="1:17" x14ac:dyDescent="0.3">
@@ -4149,7 +4152,7 @@
         <v>12</v>
       </c>
       <c r="G61" s="7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="H61" s="7">
         <v>1</v>
@@ -4158,13 +4161,13 @@
         <v>391</v>
       </c>
       <c r="J61" s="7" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="K61" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L61" s="7" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="M61" s="7">
         <v>1</v>
@@ -4173,13 +4176,13 @@
         <v>391</v>
       </c>
       <c r="O61" s="7" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="P61" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q61" s="7" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
     </row>
     <row r="62" spans="1:17" x14ac:dyDescent="0.3">
@@ -4200,7 +4203,7 @@
         <v>12</v>
       </c>
       <c r="G62" s="7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="H62" s="7">
         <v>0</v>
@@ -4215,7 +4218,7 @@
         <v>12</v>
       </c>
       <c r="L62" s="7" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="M62" s="7">
         <v>0</v>
@@ -4230,7 +4233,7 @@
         <v>12</v>
       </c>
       <c r="Q62" s="7" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
     </row>
     <row r="63" spans="1:17" x14ac:dyDescent="0.3">
@@ -4245,13 +4248,13 @@
         <v>1175</v>
       </c>
       <c r="E63" s="7" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="F63" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G63" s="7" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="H63" s="7">
         <v>0</v>
@@ -4266,7 +4269,7 @@
         <v>12</v>
       </c>
       <c r="L63" s="7" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="M63" s="7">
         <v>1</v>
@@ -4275,13 +4278,13 @@
         <v>1175</v>
       </c>
       <c r="O63" s="7" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="P63" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q63" s="7" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
     </row>
     <row r="64" spans="1:17" x14ac:dyDescent="0.3">
@@ -4302,7 +4305,7 @@
         <v>12</v>
       </c>
       <c r="G64" s="7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="H64" s="7">
         <v>0</v>
@@ -4317,7 +4320,7 @@
         <v>12</v>
       </c>
       <c r="L64" s="7" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="M64" s="7">
         <v>0</v>
@@ -4332,7 +4335,7 @@
         <v>12</v>
       </c>
       <c r="Q64" s="7" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
     </row>
     <row r="65" spans="1:17" x14ac:dyDescent="0.3">
@@ -4353,7 +4356,7 @@
         <v>12</v>
       </c>
       <c r="G65" s="7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="H65" s="7">
         <v>0</v>
@@ -4368,7 +4371,7 @@
         <v>12</v>
       </c>
       <c r="L65" s="7" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="M65" s="7">
         <v>0</v>
@@ -4383,7 +4386,7 @@
         <v>12</v>
       </c>
       <c r="Q65" s="7" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
     </row>
     <row r="66" spans="1:17" x14ac:dyDescent="0.3">
@@ -4398,13 +4401,13 @@
         <v>160</v>
       </c>
       <c r="E66" s="7" t="s">
-        <v>45</v>
+        <v>134</v>
       </c>
       <c r="F66" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G66" s="7" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="H66" s="7">
         <v>0</v>
@@ -4419,7 +4422,7 @@
         <v>12</v>
       </c>
       <c r="L66" s="7" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="M66" s="7">
         <v>1</v>
@@ -4428,13 +4431,13 @@
         <v>160</v>
       </c>
       <c r="O66" s="7" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="P66" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q66" s="7" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
     </row>
     <row r="67" spans="1:17" x14ac:dyDescent="0.3">
@@ -4455,7 +4458,7 @@
         <v>12</v>
       </c>
       <c r="G67" s="7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="H67" s="7">
         <v>0</v>
@@ -4470,7 +4473,7 @@
         <v>12</v>
       </c>
       <c r="L67" s="7" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="M67" s="7">
         <v>0</v>
@@ -4485,7 +4488,7 @@
         <v>12</v>
       </c>
       <c r="Q67" s="7" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
     </row>
     <row r="68" spans="1:17" x14ac:dyDescent="0.3">
@@ -4506,7 +4509,7 @@
         <v>12</v>
       </c>
       <c r="G68" s="7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="H68" s="7">
         <v>0</v>
@@ -4521,7 +4524,7 @@
         <v>12</v>
       </c>
       <c r="L68" s="7" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="M68" s="7">
         <v>0</v>
@@ -4536,7 +4539,7 @@
         <v>12</v>
       </c>
       <c r="Q68" s="7" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
     </row>
     <row r="69" spans="1:17" x14ac:dyDescent="0.3">
@@ -4557,7 +4560,7 @@
         <v>12</v>
       </c>
       <c r="G69" s="7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="H69" s="7">
         <v>1</v>
@@ -4566,13 +4569,13 @@
         <v>570</v>
       </c>
       <c r="J69" s="7" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="K69" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L69" s="7" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="M69" s="7">
         <v>1</v>
@@ -4581,13 +4584,13 @@
         <v>570</v>
       </c>
       <c r="O69" s="7" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="P69" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q69" s="7" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
     </row>
     <row r="70" spans="1:17" x14ac:dyDescent="0.3">
@@ -4608,7 +4611,7 @@
         <v>12</v>
       </c>
       <c r="G70" s="7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="H70" s="7">
         <v>0</v>
@@ -4623,7 +4626,7 @@
         <v>12</v>
       </c>
       <c r="L70" s="7" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="M70" s="7">
         <v>0</v>
@@ -4638,7 +4641,7 @@
         <v>12</v>
       </c>
       <c r="Q70" s="7" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
     </row>
     <row r="71" spans="1:17" x14ac:dyDescent="0.3">
@@ -4706,13 +4709,13 @@
         <v>318</v>
       </c>
       <c r="E72" s="7" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="F72" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G72" s="7" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="H72" s="7">
         <v>0</v>
@@ -4727,7 +4730,7 @@
         <v>12</v>
       </c>
       <c r="L72" s="7" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="M72" s="7">
         <v>2</v>
@@ -4736,13 +4739,13 @@
         <v>318</v>
       </c>
       <c r="O72" s="7" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="P72" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q72" s="7" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
     </row>
     <row r="73" spans="1:17" x14ac:dyDescent="0.3">
@@ -4757,13 +4760,13 @@
         <v>3157</v>
       </c>
       <c r="E73" s="7" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="F73" s="7" t="s">
         <v>144</v>
       </c>
       <c r="G73" s="7" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="H73" s="7">
         <v>4</v>
@@ -4772,13 +4775,13 @@
         <v>635</v>
       </c>
       <c r="J73" s="7" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="K73" s="7" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="L73" s="7" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="M73" s="7">
         <v>7</v>
@@ -4787,13 +4790,13 @@
         <v>3792</v>
       </c>
       <c r="O73" s="7" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="P73" s="7" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="Q73" s="7" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
     </row>
     <row r="74" spans="1:17" x14ac:dyDescent="0.3">
@@ -4808,13 +4811,13 @@
         <v>159</v>
       </c>
       <c r="E74" s="7" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="F74" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G74" s="7" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="H74" s="7">
         <v>1</v>
@@ -4823,13 +4826,13 @@
         <v>605</v>
       </c>
       <c r="J74" s="7" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="K74" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L74" s="7" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="M74" s="7">
         <v>2</v>
@@ -4838,13 +4841,13 @@
         <v>764</v>
       </c>
       <c r="O74" s="7" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="P74" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q74" s="7" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
     </row>
     <row r="75" spans="1:17" x14ac:dyDescent="0.3">
@@ -4859,13 +4862,13 @@
         <v>1938</v>
       </c>
       <c r="E75" s="7" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="F75" s="7" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="G75" s="7" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="H75" s="7">
         <v>7</v>
@@ -4874,13 +4877,13 @@
         <v>2429</v>
       </c>
       <c r="J75" s="7" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="K75" s="7" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="L75" s="7" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="M75" s="7">
         <v>10</v>
@@ -4889,13 +4892,13 @@
         <v>4368</v>
       </c>
       <c r="O75" s="7" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="P75" s="7" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="Q75" s="7" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
     </row>
     <row r="76" spans="1:17" x14ac:dyDescent="0.3">
@@ -4910,13 +4913,13 @@
         <v>1724</v>
       </c>
       <c r="E76" s="7" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="F76" s="7" t="s">
-        <v>168</v>
+        <v>11</v>
       </c>
       <c r="G76" s="7" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="H76" s="7">
         <v>4</v>
@@ -4925,13 +4928,13 @@
         <v>3606</v>
       </c>
       <c r="J76" s="7" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="K76" s="7" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="L76" s="7" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="M76" s="7">
         <v>7</v>
@@ -4940,13 +4943,13 @@
         <v>5330</v>
       </c>
       <c r="O76" s="7" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="P76" s="7" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="Q76" s="7" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
     </row>
     <row r="77" spans="1:17" x14ac:dyDescent="0.3">
@@ -4961,13 +4964,13 @@
         <v>1977</v>
       </c>
       <c r="E77" s="7" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="F77" s="7" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="G77" s="7" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="H77" s="7">
         <v>1</v>
@@ -4976,13 +4979,13 @@
         <v>1171</v>
       </c>
       <c r="J77" s="7" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="K77" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L77" s="7" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="M77" s="7">
         <v>4</v>
@@ -4991,13 +4994,13 @@
         <v>3148</v>
       </c>
       <c r="O77" s="7" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="P77" s="7" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="Q77" s="7" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
     </row>
     <row r="78" spans="1:17" x14ac:dyDescent="0.3">
@@ -5012,13 +5015,13 @@
         <v>159</v>
       </c>
       <c r="E78" s="7" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="F78" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G78" s="7" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="H78" s="7">
         <v>1</v>
@@ -5027,13 +5030,13 @@
         <v>391</v>
       </c>
       <c r="J78" s="7" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="K78" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L78" s="7" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="M78" s="7">
         <v>2</v>
@@ -5042,13 +5045,13 @@
         <v>550</v>
       </c>
       <c r="O78" s="7" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="P78" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q78" s="7" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
     </row>
     <row r="79" spans="1:17" x14ac:dyDescent="0.3">
@@ -5063,13 +5066,13 @@
         <v>1100</v>
       </c>
       <c r="E79" s="7" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="F79" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G79" s="7" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="H79" s="7">
         <v>0</v>
@@ -5084,7 +5087,7 @@
         <v>12</v>
       </c>
       <c r="L79" s="7" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="M79" s="7">
         <v>2</v>
@@ -5093,13 +5096,13 @@
         <v>1100</v>
       </c>
       <c r="O79" s="7" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="P79" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q79" s="7" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
     </row>
     <row r="80" spans="1:17" x14ac:dyDescent="0.3">
@@ -5114,13 +5117,13 @@
         <v>1175</v>
       </c>
       <c r="E80" s="7" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="F80" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G80" s="7" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="H80" s="7">
         <v>0</v>
@@ -5135,7 +5138,7 @@
         <v>12</v>
       </c>
       <c r="L80" s="7" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="M80" s="7">
         <v>1</v>
@@ -5144,13 +5147,13 @@
         <v>1175</v>
       </c>
       <c r="O80" s="7" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="P80" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q80" s="7" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
     </row>
     <row r="81" spans="1:17" x14ac:dyDescent="0.3">
@@ -5165,13 +5168,13 @@
         <v>635</v>
       </c>
       <c r="E81" s="7" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="F81" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G81" s="7" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="H81" s="7">
         <v>1</v>
@@ -5180,13 +5183,13 @@
         <v>725</v>
       </c>
       <c r="J81" s="7" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="K81" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L81" s="7" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="M81" s="7">
         <v>2</v>
@@ -5195,13 +5198,13 @@
         <v>1360</v>
       </c>
       <c r="O81" s="7" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="P81" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q81" s="7" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
     </row>
     <row r="82" spans="1:17" x14ac:dyDescent="0.3">
@@ -5216,13 +5219,13 @@
         <v>906</v>
       </c>
       <c r="E82" s="7" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="F82" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G82" s="7" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="H82" s="7">
         <v>0</v>
@@ -5237,7 +5240,7 @@
         <v>12</v>
       </c>
       <c r="L82" s="7" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="M82" s="7">
         <v>1</v>
@@ -5246,13 +5249,13 @@
         <v>906</v>
       </c>
       <c r="O82" s="7" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="P82" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q82" s="7" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
     </row>
     <row r="83" spans="1:17" x14ac:dyDescent="0.3">
@@ -5267,13 +5270,13 @@
         <v>2447</v>
       </c>
       <c r="E83" s="7" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="F83" s="7" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="G83" s="7" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="H83" s="7">
         <v>0</v>
@@ -5288,7 +5291,7 @@
         <v>12</v>
       </c>
       <c r="L83" s="7" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="M83" s="7">
         <v>3</v>
@@ -5297,13 +5300,13 @@
         <v>2447</v>
       </c>
       <c r="O83" s="7" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="P83" s="7" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="Q83" s="7" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
     </row>
     <row r="84" spans="1:17" x14ac:dyDescent="0.3">
@@ -5324,7 +5327,7 @@
         <v>12</v>
       </c>
       <c r="G84" s="7" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="H84" s="7">
         <v>1</v>
@@ -5333,13 +5336,13 @@
         <v>633</v>
       </c>
       <c r="J84" s="7" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="K84" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L84" s="7" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="M84" s="7">
         <v>1</v>
@@ -5348,13 +5351,13 @@
         <v>633</v>
       </c>
       <c r="O84" s="7" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="P84" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q84" s="7" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
     </row>
     <row r="85" spans="1:17" x14ac:dyDescent="0.3">
@@ -5375,7 +5378,7 @@
         <v>12</v>
       </c>
       <c r="G85" s="7" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="H85" s="7">
         <v>1</v>
@@ -5384,13 +5387,13 @@
         <v>159</v>
       </c>
       <c r="J85" s="7" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="K85" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L85" s="7" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="M85" s="7">
         <v>1</v>
@@ -5399,13 +5402,13 @@
         <v>159</v>
       </c>
       <c r="O85" s="7" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="P85" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q85" s="7" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
     </row>
     <row r="86" spans="1:17" x14ac:dyDescent="0.3">
@@ -5426,7 +5429,7 @@
         <v>12</v>
       </c>
       <c r="G86" s="7" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="H86" s="7">
         <v>1</v>
@@ -5435,13 +5438,13 @@
         <v>570</v>
       </c>
       <c r="J86" s="7" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="K86" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L86" s="7" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="M86" s="7">
         <v>1</v>
@@ -5450,13 +5453,13 @@
         <v>570</v>
       </c>
       <c r="O86" s="7" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="P86" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q86" s="7" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
     </row>
     <row r="87" spans="1:17" x14ac:dyDescent="0.3">
@@ -5477,7 +5480,7 @@
         <v>12</v>
       </c>
       <c r="G87" s="7" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="H87" s="7">
         <v>1</v>
@@ -5486,13 +5489,13 @@
         <v>620</v>
       </c>
       <c r="J87" s="7" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="K87" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L87" s="7" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="M87" s="7">
         <v>1</v>
@@ -5501,13 +5504,13 @@
         <v>620</v>
       </c>
       <c r="O87" s="7" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="P87" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q87" s="7" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
     </row>
     <row r="88" spans="1:17" x14ac:dyDescent="0.3">
@@ -5563,7 +5566,7 @@
     </row>
     <row r="89" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/IP32A_2023-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/IP32A_2023-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{51400062-E0E7-43C2-89AF-91FD4FC7C3E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{281513B5-DECF-4CA7-9328-044299B664EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{26F2EB40-BBE5-4122-86E8-B7CA2D6D381D}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{B6DDFBE3-E65C-489C-8EF5-9F53796BEFD1}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,15 +36,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="795" uniqueCount="232">
-  <si>
-    <t>Menores según su lugar de nacimiento / solo 2023 en 2023 (Tasa respuesta: 2,45%)</t>
-  </si>
-  <si>
-    <t>Hombre</t>
-  </si>
-  <si>
-    <t>Mujer</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="640" uniqueCount="227">
+  <si>
+    <t>Menores extranjeros/as según año que llegó a España en 2023 (Tasa respuesta: 2,45%)</t>
+  </si>
+  <si>
+    <t>Niña</t>
+  </si>
+  <si>
+    <t>Niño</t>
   </si>
   <si>
     <t>Total</t>
@@ -65,10 +65,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>-</t>
-  </si>
-  <si>
-    <t>—%</t>
+    <t>Primarios</t>
   </si>
   <si>
     <t>0,0%</t>
@@ -77,658 +74,646 @@
     <t>0%</t>
   </si>
   <si>
-    <t>77,15%</t>
+    <t>30,57%</t>
+  </si>
+  <si>
+    <t>8,47%</t>
   </si>
   <si>
     <t>100,0%</t>
   </si>
   <si>
-    <t>22,85%</t>
+    <t>4,69%</t>
+  </si>
+  <si>
+    <t>31,02%</t>
+  </si>
+  <si>
+    <t>20,59%</t>
+  </si>
+  <si>
+    <t>61,77%</t>
+  </si>
+  <si>
+    <t>44,41%</t>
+  </si>
+  <si>
+    <t>9,18%</t>
+  </si>
+  <si>
+    <t>36,11%</t>
+  </si>
+  <si>
+    <t>20,75%</t>
+  </si>
+  <si>
+    <t>35,8%</t>
+  </si>
+  <si>
+    <t>84,46%</t>
+  </si>
+  <si>
+    <t>34,87%</t>
+  </si>
+  <si>
+    <t>35,29%</t>
+  </si>
+  <si>
+    <t>3,05%</t>
+  </si>
+  <si>
+    <t>80,84%</t>
+  </si>
+  <si>
+    <t>56,66%</t>
+  </si>
+  <si>
+    <t>31,39%</t>
+  </si>
+  <si>
+    <t>86,68%</t>
+  </si>
+  <si>
+    <t>43,61%</t>
+  </si>
+  <si>
+    <t>86,52%</t>
+  </si>
+  <si>
+    <t>19,45%</t>
+  </si>
+  <si>
+    <t>66,26%</t>
   </si>
   <si>
     <t>100%</t>
   </si>
   <si>
-    <t>Primarios</t>
-  </si>
-  <si>
-    <t>9,32%</t>
-  </si>
-  <si>
-    <t>30,57%</t>
-  </si>
-  <si>
-    <t>4,97%</t>
-  </si>
-  <si>
-    <t>36,4%</t>
-  </si>
-  <si>
-    <t>44,41%</t>
-  </si>
-  <si>
-    <t>21,32%</t>
-  </si>
-  <si>
-    <t>79,97%</t>
-  </si>
-  <si>
-    <t>9,95%</t>
-  </si>
-  <si>
-    <t>44,63%</t>
-  </si>
-  <si>
-    <t>20,75%</t>
-  </si>
-  <si>
-    <t>37,18%</t>
-  </si>
-  <si>
-    <t>37,11%</t>
-  </si>
-  <si>
-    <t>87,45%</t>
-  </si>
-  <si>
-    <t>37,15%</t>
-  </si>
-  <si>
-    <t>79,85%</t>
-  </si>
-  <si>
-    <t>53,5%</t>
-  </si>
-  <si>
-    <t>28,55%</t>
-  </si>
-  <si>
-    <t>76,84%</t>
-  </si>
-  <si>
-    <t>41,57%</t>
-  </si>
-  <si>
-    <t>85,41%</t>
-  </si>
-  <si>
-    <t>19,39%</t>
-  </si>
-  <si>
-    <t>64,55%</t>
-  </si>
-  <si>
     <t>Secundarios</t>
   </si>
   <si>
+    <t>1,05%</t>
+  </si>
+  <si>
+    <t>7,91%</t>
+  </si>
+  <si>
+    <t>0,73%</t>
+  </si>
+  <si>
+    <t>4,93%</t>
+  </si>
+  <si>
+    <t>2,28%</t>
+  </si>
+  <si>
+    <t>18,96%</t>
+  </si>
+  <si>
+    <t>38,42%</t>
+  </si>
+  <si>
+    <t>79,88%</t>
+  </si>
+  <si>
+    <t>27,34%</t>
+  </si>
+  <si>
+    <t>0,92%</t>
+  </si>
+  <si>
+    <t>70,68%</t>
+  </si>
+  <si>
+    <t>9,02%</t>
+  </si>
+  <si>
+    <t>49,43%</t>
+  </si>
+  <si>
+    <t>7,19%</t>
+  </si>
+  <si>
+    <t>3,49%</t>
+  </si>
+  <si>
+    <t>17,9%</t>
+  </si>
+  <si>
+    <t>2,35%</t>
+  </si>
+  <si>
+    <t>19,5%</t>
+  </si>
+  <si>
+    <t>10,99%</t>
+  </si>
+  <si>
+    <t>48,72%</t>
+  </si>
+  <si>
+    <t>8,34%</t>
+  </si>
+  <si>
+    <t>0,69%</t>
+  </si>
+  <si>
+    <t>37,88%</t>
+  </si>
+  <si>
+    <t>63,3%</t>
+  </si>
+  <si>
+    <t>94,17%</t>
+  </si>
+  <si>
+    <t>7,36%</t>
+  </si>
+  <si>
+    <t>27,99%</t>
+  </si>
+  <si>
+    <t>24,52%</t>
+  </si>
+  <si>
+    <t>4,52%</t>
+  </si>
+  <si>
+    <t>54,63%</t>
+  </si>
+  <si>
+    <t>6,93%</t>
+  </si>
+  <si>
+    <t>35,52%</t>
+  </si>
+  <si>
+    <t>4,8%</t>
+  </si>
+  <si>
+    <t>23,19%</t>
+  </si>
+  <si>
+    <t>1,03%</t>
+  </si>
+  <si>
+    <t>6,52%</t>
+  </si>
+  <si>
+    <t>0,72%</t>
+  </si>
+  <si>
+    <t>4,24%</t>
+  </si>
+  <si>
+    <t>7,05%</t>
+  </si>
+  <si>
+    <t>25,17%</t>
+  </si>
+  <si>
+    <t>4,89%</t>
+  </si>
+  <si>
+    <t>21,77%</t>
+  </si>
+  <si>
+    <t>10,53%</t>
+  </si>
+  <si>
+    <t>7,32%</t>
+  </si>
+  <si>
+    <t>11,78%</t>
+  </si>
+  <si>
+    <t>58,64%</t>
+  </si>
+  <si>
+    <t>4,37%</t>
+  </si>
+  <si>
+    <t>25,02%</t>
+  </si>
+  <si>
+    <t>6,65%</t>
+  </si>
+  <si>
+    <t>23,66%</t>
+  </si>
+  <si>
+    <t>5,88%</t>
+  </si>
+  <si>
+    <t>31,14%</t>
+  </si>
+  <si>
+    <t>4,08%</t>
+  </si>
+  <si>
+    <t>24,97%</t>
+  </si>
+  <si>
+    <t>15,87%</t>
+  </si>
+  <si>
+    <t>54,87%</t>
+  </si>
+  <si>
+    <t>11,0%</t>
+  </si>
+  <si>
+    <t>42,41%</t>
+  </si>
+  <si>
+    <t>8,97%</t>
+  </si>
+  <si>
+    <t>49,39%</t>
+  </si>
+  <si>
+    <t>2,75%</t>
+  </si>
+  <si>
+    <t>19,79%</t>
+  </si>
+  <si>
+    <t>2,31%</t>
+  </si>
+  <si>
+    <t>16,53%</t>
+  </si>
+  <si>
+    <t>0,71%</t>
+  </si>
+  <si>
+    <t>4,29%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>18,74%</t>
+  </si>
+  <si>
+    <t>36,25%</t>
+  </si>
+  <si>
+    <t>13,49%</t>
+  </si>
+  <si>
+    <t>4,88%</t>
+  </si>
+  <si>
+    <t>33,42%</t>
+  </si>
+  <si>
+    <t>7,51%</t>
+  </si>
+  <si>
+    <t>75,29%</t>
+  </si>
+  <si>
+    <t>5,92%</t>
+  </si>
+  <si>
+    <t>22,37%</t>
+  </si>
+  <si>
+    <t>57,74%</t>
+  </si>
+  <si>
+    <t>15,56%</t>
+  </si>
+  <si>
+    <t>92,79%</t>
+  </si>
+  <si>
+    <t>34,8%</t>
+  </si>
+  <si>
+    <t>6,81%</t>
+  </si>
+  <si>
+    <t>76,13%</t>
+  </si>
+  <si>
+    <t>9,79%</t>
+  </si>
+  <si>
+    <t>35,14%</t>
+  </si>
+  <si>
+    <t>32,89%</t>
+  </si>
+  <si>
+    <t>93,03%</t>
+  </si>
+  <si>
+    <t>18,97%</t>
+  </si>
+  <si>
+    <t>3,36%</t>
+  </si>
+  <si>
+    <t>63,16%</t>
+  </si>
+  <si>
+    <t>11,71%</t>
+  </si>
+  <si>
+    <t>54,53%</t>
+  </si>
+  <si>
+    <t>7,06%</t>
+  </si>
+  <si>
+    <t>46,92%</t>
+  </si>
+  <si>
+    <t>52,21%</t>
+  </si>
+  <si>
+    <t>95,49%</t>
+  </si>
+  <si>
+    <t>20,74%</t>
+  </si>
+  <si>
+    <t>62,58%</t>
+  </si>
+  <si>
+    <t>7,39%</t>
+  </si>
+  <si>
+    <t>49,61%</t>
+  </si>
+  <si>
+    <t>2,94%</t>
+  </si>
+  <si>
+    <t>19,7%</t>
+  </si>
+  <si>
+    <t>57,55%</t>
+  </si>
+  <si>
+    <t>9,57%</t>
+  </si>
+  <si>
+    <t>49,56%</t>
+  </si>
+  <si>
+    <t>8,27%</t>
+  </si>
+  <si>
+    <t>1,66%</t>
+  </si>
+  <si>
+    <t>7,53%</t>
+  </si>
+  <si>
+    <t>1,04%</t>
+  </si>
+  <si>
+    <t>4,3%</t>
+  </si>
+  <si>
+    <t>5,44%</t>
+  </si>
+  <si>
+    <t>1,18%</t>
+  </si>
+  <si>
+    <t>16,85%</t>
+  </si>
+  <si>
+    <t>31,21%</t>
+  </si>
+  <si>
+    <t>1,2%</t>
+  </si>
+  <si>
+    <t>73,24%</t>
+  </si>
+  <si>
+    <t>21,57%</t>
+  </si>
+  <si>
+    <t>2,9%</t>
+  </si>
+  <si>
+    <t>62,34%</t>
+  </si>
+  <si>
+    <t>5,28%</t>
+  </si>
+  <si>
+    <t>27,41%</t>
+  </si>
+  <si>
+    <t>0,83%</t>
+  </si>
+  <si>
+    <t>5,48%</t>
+  </si>
+  <si>
+    <t>2,49%</t>
+  </si>
+  <si>
+    <t>9,94%</t>
+  </si>
+  <si>
+    <t>22,38%</t>
+  </si>
+  <si>
+    <t>6,68%</t>
+  </si>
+  <si>
+    <t>54,79%</t>
+  </si>
+  <si>
+    <t>12,13%</t>
+  </si>
+  <si>
+    <t>0,8%</t>
+  </si>
+  <si>
+    <t>41,97%</t>
+  </si>
+  <si>
+    <t>15,96%</t>
+  </si>
+  <si>
+    <t>5,34%</t>
+  </si>
+  <si>
+    <t>34,43%</t>
+  </si>
+  <si>
+    <t>39,83%</t>
+  </si>
+  <si>
+    <t>3,89%</t>
+  </si>
+  <si>
+    <t>75,1%</t>
+  </si>
+  <si>
+    <t>9,46%</t>
+  </si>
+  <si>
+    <t>29,8%</t>
+  </si>
+  <si>
+    <t>20,82%</t>
+  </si>
+  <si>
+    <t>5,54%</t>
+  </si>
+  <si>
+    <t>45,42%</t>
+  </si>
+  <si>
+    <t>11,06%</t>
+  </si>
+  <si>
+    <t>0,62%</t>
+  </si>
+  <si>
+    <t>35,9%</t>
+  </si>
+  <si>
+    <t>6,92%</t>
+  </si>
+  <si>
+    <t>0,41%</t>
+  </si>
+  <si>
+    <t>20,78%</t>
+  </si>
+  <si>
+    <t>3,3%</t>
+  </si>
+  <si>
+    <t>20,72%</t>
+  </si>
+  <si>
+    <t>0,82%</t>
+  </si>
+  <si>
+    <t>4,98%</t>
+  </si>
+  <si>
+    <t>1,74%</t>
+  </si>
+  <si>
+    <t>5,57%</t>
+  </si>
+  <si>
+    <t>20,65%</t>
+  </si>
+  <si>
+    <t>12,77%</t>
+  </si>
+  <si>
+    <t>5,79%</t>
+  </si>
+  <si>
+    <t>28,91%</t>
+  </si>
+  <si>
+    <t>3,62%</t>
+  </si>
+  <si>
+    <t>17,58%</t>
+  </si>
+  <si>
+    <t>6,9%</t>
+  </si>
+  <si>
+    <t>35,89%</t>
+  </si>
+  <si>
+    <t>3,46%</t>
+  </si>
+  <si>
+    <t>18,22%</t>
+  </si>
+  <si>
+    <t>4,74%</t>
+  </si>
+  <si>
+    <t>15,85%</t>
+  </si>
+  <si>
+    <t>4,65%</t>
+  </si>
+  <si>
+    <t>26,1%</t>
+  </si>
+  <si>
+    <t>2,91%</t>
+  </si>
+  <si>
+    <t>19,04%</t>
+  </si>
+  <si>
+    <t>13,36%</t>
+  </si>
+  <si>
+    <t>41,88%</t>
+  </si>
+  <si>
+    <t>8,37%</t>
+  </si>
+  <si>
+    <t>33,63%</t>
+  </si>
+  <si>
+    <t>5,25%</t>
+  </si>
+  <si>
+    <t>29,96%</t>
+  </si>
+  <si>
+    <t>7,61%</t>
+  </si>
+  <si>
+    <t>1,96%</t>
+  </si>
+  <si>
+    <t>13,59%</t>
+  </si>
+  <si>
     <t>1,35%</t>
   </si>
   <si>
-    <t>8,93%</t>
-  </si>
-  <si>
-    <t>0,91%</t>
-  </si>
-  <si>
-    <t>5,54%</t>
-  </si>
-  <si>
-    <t>25,36%</t>
-  </si>
-  <si>
-    <t>74,6%</t>
-  </si>
-  <si>
-    <t>2,77%</t>
-  </si>
-  <si>
-    <t>19,81%</t>
-  </si>
-  <si>
-    <t>17,99%</t>
-  </si>
-  <si>
-    <t>1,02%</t>
-  </si>
-  <si>
-    <t>59,81%</t>
-  </si>
-  <si>
-    <t>8,3%</t>
-  </si>
-  <si>
-    <t>10,56%</t>
-  </si>
-  <si>
-    <t>58,87%</t>
-  </si>
-  <si>
-    <t>4,35%</t>
-  </si>
-  <si>
-    <t>23,31%</t>
-  </si>
-  <si>
-    <t>11,03%</t>
-  </si>
-  <si>
-    <t>44,72%</t>
-  </si>
-  <si>
-    <t>2,78%</t>
-  </si>
-  <si>
-    <t>18,39%</t>
-  </si>
-  <si>
-    <t>8,34%</t>
-  </si>
-  <si>
-    <t>0,94%</t>
-  </si>
-  <si>
-    <t>36,5%</t>
-  </si>
-  <si>
-    <t>8,88%</t>
-  </si>
-  <si>
-    <t>31,8%</t>
-  </si>
-  <si>
-    <t>57,41%</t>
-  </si>
-  <si>
-    <t>93,36%</t>
-  </si>
-  <si>
-    <t>24,72%</t>
-  </si>
-  <si>
-    <t>6,76%</t>
-  </si>
-  <si>
-    <t>58,49%</t>
-  </si>
-  <si>
-    <t>9,01%</t>
-  </si>
-  <si>
-    <t>36,88%</t>
-  </si>
-  <si>
-    <t>6,07%</t>
-  </si>
-  <si>
-    <t>29,51%</t>
-  </si>
-  <si>
-    <t>8,01%</t>
-  </si>
-  <si>
-    <t>5,25%</t>
-  </si>
-  <si>
-    <t>9,3%</t>
-  </si>
-  <si>
-    <t>31,37%</t>
-  </si>
-  <si>
-    <t>6,27%</t>
-  </si>
-  <si>
-    <t>21,76%</t>
-  </si>
-  <si>
-    <t>10,53%</t>
-  </si>
-  <si>
-    <t>7,32%</t>
-  </si>
-  <si>
-    <t>5,38%</t>
-  </si>
-  <si>
-    <t>29,04%</t>
-  </si>
-  <si>
-    <t>12,65%</t>
-  </si>
-  <si>
-    <t>60,3%</t>
-  </si>
-  <si>
-    <t>7,75%</t>
-  </si>
-  <si>
-    <t>25,92%</t>
-  </si>
-  <si>
-    <t>7,66%</t>
-  </si>
-  <si>
-    <t>40,83%</t>
-  </si>
-  <si>
-    <t>5,16%</t>
-  </si>
-  <si>
-    <t>28,96%</t>
-  </si>
-  <si>
-    <t>19,34%</t>
-  </si>
-  <si>
-    <t>58,59%</t>
-  </si>
-  <si>
-    <t>13,03%</t>
-  </si>
-  <si>
-    <t>44,9%</t>
-  </si>
-  <si>
-    <t>11,04%</t>
-  </si>
-  <si>
-    <t>52,51%</t>
-  </si>
-  <si>
-    <t>3,6%</t>
-  </si>
-  <si>
-    <t>18,27%</t>
-  </si>
-  <si>
-    <t>19,84%</t>
-  </si>
-  <si>
-    <t>5,6%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>36,25%</t>
-  </si>
-  <si>
-    <t>18,74%</t>
-  </si>
-  <si>
-    <t>13,49%</t>
-  </si>
-  <si>
-    <t>7,35%</t>
-  </si>
-  <si>
-    <t>74,97%</t>
-  </si>
-  <si>
-    <t>5,03%</t>
-  </si>
-  <si>
-    <t>33,29%</t>
-  </si>
-  <si>
-    <t>5,98%</t>
-  </si>
-  <si>
-    <t>22,76%</t>
-  </si>
-  <si>
-    <t>54,44%</t>
-  </si>
-  <si>
-    <t>14,8%</t>
-  </si>
-  <si>
-    <t>93,44%</t>
-  </si>
-  <si>
-    <t>32,26%</t>
-  </si>
-  <si>
-    <t>7,49%</t>
-  </si>
-  <si>
-    <t>74,04%</t>
-  </si>
-  <si>
-    <t>31,1%</t>
-  </si>
-  <si>
-    <t>92,69%</t>
-  </si>
-  <si>
-    <t>10,07%</t>
-  </si>
-  <si>
-    <t>38,32%</t>
-  </si>
-  <si>
-    <t>18,64%</t>
-  </si>
-  <si>
-    <t>2,34%</t>
-  </si>
-  <si>
-    <t>57,02%</t>
-  </si>
-  <si>
-    <t>12,39%</t>
-  </si>
-  <si>
-    <t>51,67%</t>
-  </si>
-  <si>
-    <t>7,34%</t>
-  </si>
-  <si>
-    <t>39,73%</t>
-  </si>
-  <si>
-    <t>54,19%</t>
-  </si>
-  <si>
-    <t>95,67%</t>
-  </si>
-  <si>
-    <t>22,07%</t>
-  </si>
-  <si>
-    <t>71,99%</t>
-  </si>
-  <si>
-    <t>7,36%</t>
-  </si>
-  <si>
-    <t>75,03%</t>
-  </si>
-  <si>
-    <t>3,0%</t>
-  </si>
-  <si>
-    <t>18,9%</t>
-  </si>
-  <si>
-    <t>18,07%</t>
-  </si>
-  <si>
-    <t>63,03%</t>
-  </si>
-  <si>
-    <t>10,71%</t>
-  </si>
-  <si>
-    <t>2,03%</t>
-  </si>
-  <si>
-    <t>7,84%</t>
-  </si>
-  <si>
-    <t>7,93%</t>
-  </si>
-  <si>
-    <t>1,17%</t>
-  </si>
-  <si>
-    <t>4,13%</t>
-  </si>
-  <si>
-    <t>20,11%</t>
-  </si>
-  <si>
-    <t>65,53%</t>
-  </si>
-  <si>
-    <t>5,5%</t>
-  </si>
-  <si>
-    <t>1,22%</t>
-  </si>
-  <si>
-    <t>15,68%</t>
-  </si>
-  <si>
-    <t>13,92%</t>
-  </si>
-  <si>
-    <t>2,87%</t>
-  </si>
-  <si>
-    <t>41,68%</t>
-  </si>
-  <si>
-    <t>1,01%</t>
-  </si>
-  <si>
-    <t>7,16%</t>
-  </si>
-  <si>
-    <t>5,24%</t>
-  </si>
-  <si>
-    <t>30,7%</t>
-  </si>
-  <si>
-    <t>2,81%</t>
-  </si>
-  <si>
-    <t>13,23%</t>
-  </si>
-  <si>
-    <t>12,35%</t>
-  </si>
-  <si>
-    <t>1,2%</t>
-  </si>
-  <si>
-    <t>40,08%</t>
-  </si>
-  <si>
-    <t>21,05%</t>
-  </si>
-  <si>
-    <t>6,37%</t>
-  </si>
-  <si>
-    <t>49,77%</t>
-  </si>
-  <si>
-    <t>16,03%</t>
-  </si>
-  <si>
-    <t>6,18%</t>
-  </si>
-  <si>
-    <t>31,73%</t>
-  </si>
-  <si>
-    <t>10,99%</t>
-  </si>
-  <si>
-    <t>28,65%</t>
-  </si>
-  <si>
-    <t>31,24%</t>
-  </si>
-  <si>
-    <t>5,13%</t>
-  </si>
-  <si>
-    <t>73,51%</t>
-  </si>
-  <si>
-    <t>19,57%</t>
-  </si>
-  <si>
-    <t>6,7%</t>
-  </si>
-  <si>
-    <t>42,55%</t>
-  </si>
-  <si>
-    <t>12,6%</t>
-  </si>
-  <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>35,54%</t>
-  </si>
-  <si>
-    <t>10,15%</t>
-  </si>
-  <si>
-    <t>45,69%</t>
-  </si>
-  <si>
-    <t>11,56%</t>
-  </si>
-  <si>
-    <t>3,18%</t>
-  </si>
-  <si>
-    <t>28,04%</t>
-  </si>
-  <si>
-    <t>6,54%</t>
-  </si>
-  <si>
-    <t>3,38%</t>
-  </si>
-  <si>
-    <t>16,65%</t>
-  </si>
-  <si>
-    <t>2,02%</t>
-  </si>
-  <si>
-    <t>7,91%</t>
-  </si>
-  <si>
-    <t>7,01%</t>
-  </si>
-  <si>
-    <t>22,88%</t>
-  </si>
-  <si>
-    <t>4,04%</t>
-  </si>
-  <si>
-    <t>14,73%</t>
-  </si>
-  <si>
-    <t>7,48%</t>
-  </si>
-  <si>
-    <t>37,63%</t>
-  </si>
-  <si>
-    <t>4,31%</t>
-  </si>
-  <si>
-    <t>23,59%</t>
-  </si>
-  <si>
-    <t>4,05%</t>
-  </si>
-  <si>
-    <t>23,26%</t>
-  </si>
-  <si>
-    <t>6,28%</t>
-  </si>
-  <si>
-    <t>32,29%</t>
-  </si>
-  <si>
-    <t>4,99%</t>
-  </si>
-  <si>
-    <t>16,6%</t>
-  </si>
-  <si>
-    <t>5,77%</t>
-  </si>
-  <si>
-    <t>31,52%</t>
+    <t>0,51%</t>
   </si>
   <si>
     <t>3,33%</t>
   </si>
   <si>
-    <t>17,69%</t>
-  </si>
-  <si>
-    <t>15,59%</t>
-  </si>
-  <si>
-    <t>1,32%</t>
-  </si>
-  <si>
-    <t>50,57%</t>
-  </si>
-  <si>
-    <t>8,98%</t>
-  </si>
-  <si>
-    <t>0,77%</t>
-  </si>
-  <si>
-    <t>31,27%</t>
-  </si>
-  <si>
-    <t>7,61%</t>
-  </si>
-  <si>
-    <t>5,48%</t>
-  </si>
-  <si>
-    <t>29,18%</t>
-  </si>
-  <si>
-    <t>2,32%</t>
-  </si>
-  <si>
-    <t>12,11%</t>
-  </si>
-  <si>
-    <t>1,38%</t>
-  </si>
-  <si>
-    <t>9,12%</t>
-  </si>
-  <si>
-    <t>0,58%</t>
-  </si>
-  <si>
-    <t>3,7%</t>
-  </si>
-  <si>
-    <t>4,94%</t>
-  </si>
-  <si>
-    <t>26,87%</t>
-  </si>
-  <si>
-    <t>2,09%</t>
-  </si>
-  <si>
-    <t>11,95%</t>
-  </si>
-  <si>
-    <t>5,37%</t>
-  </si>
-  <si>
-    <t>29,45%</t>
-  </si>
-  <si>
-    <t>2,28%</t>
-  </si>
-  <si>
-    <t>13,33%</t>
+    <t>4,47%</t>
+  </si>
+  <si>
+    <t>21,81%</t>
+  </si>
+  <si>
+    <t>1,67%</t>
+  </si>
+  <si>
+    <t>9,9%</t>
+  </si>
+  <si>
+    <t>36,22%</t>
+  </si>
+  <si>
+    <t>2,17%</t>
+  </si>
+  <si>
+    <t>11,72%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
@@ -1143,8 +1128,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F84EE4B3-FFF4-4EBE-A2D4-29DDBF3B42AE}">
-  <dimension ref="A1:Q89"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49241132-01CE-4A15-AC40-BA149D1F77E4}">
+  <dimension ref="A1:Q72"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -1263,45 +1248,47 @@
       <c r="C4" s="7">
         <v>0</v>
       </c>
-      <c r="D4" s="7"/>
+      <c r="D4" s="7">
+        <v>0</v>
+      </c>
       <c r="E4" s="7" t="s">
         <v>10</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="H4" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I4" s="7">
-        <v>0</v>
+        <v>166</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="M4" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N4" s="7">
-        <v>0</v>
+        <v>166</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -1310,17 +1297,19 @@
         <v>2021</v>
       </c>
       <c r="C5" s="7">
-        <v>0</v>
-      </c>
-      <c r="D5" s="7"/>
+        <v>2</v>
+      </c>
+      <c r="D5" s="7">
+        <v>324</v>
+      </c>
       <c r="E5" s="7" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="F5" s="7" t="s">
         <v>10</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="H5" s="7">
         <v>0</v>
@@ -1329,28 +1318,28 @@
         <v>0</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M5" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N5" s="7">
-        <v>0</v>
+        <v>324</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -1361,15 +1350,17 @@
       <c r="C6" s="7">
         <v>0</v>
       </c>
-      <c r="D6" s="7"/>
+      <c r="D6" s="7">
+        <v>0</v>
+      </c>
       <c r="E6" s="7" t="s">
         <v>10</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="H6" s="7">
         <v>0</v>
@@ -1378,13 +1369,13 @@
         <v>0</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M6" s="7">
         <v>0</v>
@@ -1393,13 +1384,13 @@
         <v>0</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -1408,47 +1399,49 @@
         <v>2019</v>
       </c>
       <c r="C7" s="7">
-        <v>0</v>
-      </c>
-      <c r="D7" s="7"/>
+        <v>2</v>
+      </c>
+      <c r="D7" s="7">
+        <v>564</v>
+      </c>
       <c r="E7" s="7" t="s">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="F7" s="7" t="s">
         <v>10</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="H7" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I7" s="7">
-        <v>0</v>
+        <v>682</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="M7" s="7">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="N7" s="7">
-        <v>0</v>
+        <v>1246</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>13</v>
+        <v>28</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -1459,15 +1452,17 @@
       <c r="C8" s="7">
         <v>0</v>
       </c>
-      <c r="D8" s="7"/>
+      <c r="D8" s="7">
+        <v>0</v>
+      </c>
       <c r="E8" s="7" t="s">
         <v>10</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="H8" s="7">
         <v>0</v>
@@ -1476,13 +1471,13 @@
         <v>0</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M8" s="7">
         <v>0</v>
@@ -1491,13 +1486,13 @@
         <v>0</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -1508,45 +1503,47 @@
       <c r="C9" s="7">
         <v>0</v>
       </c>
-      <c r="D9" s="7"/>
+      <c r="D9" s="7">
+        <v>0</v>
+      </c>
       <c r="E9" s="7" t="s">
         <v>10</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="H9" s="7">
         <v>1</v>
       </c>
       <c r="I9" s="7">
-        <v>1171</v>
+        <v>1108</v>
       </c>
       <c r="J9" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="K9" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="L9" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="K9" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="L9" s="7" t="s">
-        <v>16</v>
-      </c>
       <c r="M9" s="7">
         <v>1</v>
       </c>
       <c r="N9" s="7">
-        <v>1171</v>
+        <v>1108</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>16</v>
+        <v>31</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -1557,15 +1554,17 @@
       <c r="C10" s="7">
         <v>0</v>
       </c>
-      <c r="D10" s="7"/>
+      <c r="D10" s="7">
+        <v>0</v>
+      </c>
       <c r="E10" s="7" t="s">
         <v>10</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="H10" s="7">
         <v>0</v>
@@ -1574,13 +1573,13 @@
         <v>0</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M10" s="7">
         <v>0</v>
@@ -1589,13 +1588,13 @@
         <v>0</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1606,15 +1605,17 @@
       <c r="C11" s="7">
         <v>0</v>
       </c>
-      <c r="D11" s="7"/>
+      <c r="D11" s="7">
+        <v>0</v>
+      </c>
       <c r="E11" s="7" t="s">
         <v>10</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="H11" s="7">
         <v>0</v>
@@ -1623,13 +1624,13 @@
         <v>0</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M11" s="7">
         <v>0</v>
@@ -1638,13 +1639,13 @@
         <v>0</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1655,15 +1656,17 @@
       <c r="C12" s="7">
         <v>0</v>
       </c>
-      <c r="D12" s="7"/>
+      <c r="D12" s="7">
+        <v>0</v>
+      </c>
       <c r="E12" s="7" t="s">
         <v>10</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="H12" s="7">
         <v>0</v>
@@ -1672,13 +1675,13 @@
         <v>0</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M12" s="7">
         <v>0</v>
@@ -1687,13 +1690,13 @@
         <v>0</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -1704,15 +1707,17 @@
       <c r="C13" s="7">
         <v>0</v>
       </c>
-      <c r="D13" s="7"/>
+      <c r="D13" s="7">
+        <v>0</v>
+      </c>
       <c r="E13" s="7" t="s">
         <v>10</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="H13" s="7">
         <v>0</v>
@@ -1721,13 +1726,13 @@
         <v>0</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M13" s="7">
         <v>0</v>
@@ -1736,13 +1741,13 @@
         <v>0</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1753,15 +1758,17 @@
       <c r="C14" s="7">
         <v>0</v>
       </c>
-      <c r="D14" s="7"/>
+      <c r="D14" s="7">
+        <v>0</v>
+      </c>
       <c r="E14" s="7" t="s">
         <v>10</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="H14" s="7">
         <v>0</v>
@@ -1770,13 +1777,13 @@
         <v>0</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M14" s="7">
         <v>0</v>
@@ -1785,13 +1792,13 @@
         <v>0</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1802,15 +1809,17 @@
       <c r="C15" s="7">
         <v>0</v>
       </c>
-      <c r="D15" s="7"/>
+      <c r="D15" s="7">
+        <v>0</v>
+      </c>
       <c r="E15" s="7" t="s">
         <v>10</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="H15" s="7">
         <v>0</v>
@@ -1819,13 +1828,13 @@
         <v>0</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M15" s="7">
         <v>0</v>
@@ -1834,13 +1843,13 @@
         <v>0</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -1851,15 +1860,17 @@
       <c r="C16" s="7">
         <v>0</v>
       </c>
-      <c r="D16" s="7"/>
+      <c r="D16" s="7">
+        <v>0</v>
+      </c>
       <c r="E16" s="7" t="s">
         <v>10</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
@@ -1868,13 +1879,13 @@
         <v>0</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M16" s="7">
         <v>0</v>
@@ -1883,13 +1894,13 @@
         <v>0</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1900,15 +1911,17 @@
       <c r="C17" s="7">
         <v>0</v>
       </c>
-      <c r="D17" s="7"/>
+      <c r="D17" s="7">
+        <v>0</v>
+      </c>
       <c r="E17" s="7" t="s">
         <v>10</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="H17" s="7">
         <v>0</v>
@@ -1917,13 +1930,13 @@
         <v>0</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M17" s="7">
         <v>0</v>
@@ -1932,13 +1945,13 @@
         <v>0</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -1949,15 +1962,17 @@
       <c r="C18" s="7">
         <v>0</v>
       </c>
-      <c r="D18" s="7"/>
+      <c r="D18" s="7">
+        <v>0</v>
+      </c>
       <c r="E18" s="7" t="s">
         <v>10</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="H18" s="7">
         <v>0</v>
@@ -1966,13 +1981,13 @@
         <v>0</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M18" s="7">
         <v>0</v>
@@ -1981,13 +1996,13 @@
         <v>0</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -1996,17 +2011,19 @@
         <v>2006</v>
       </c>
       <c r="C19" s="7">
-        <v>0</v>
-      </c>
-      <c r="D19" s="7"/>
+        <v>1</v>
+      </c>
+      <c r="D19" s="7">
+        <v>687</v>
+      </c>
       <c r="E19" s="7" t="s">
-        <v>10</v>
+        <v>32</v>
       </c>
       <c r="F19" s="7" t="s">
         <v>10</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>10</v>
+        <v>33</v>
       </c>
       <c r="H19" s="7">
         <v>0</v>
@@ -2015,28 +2032,28 @@
         <v>0</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M19" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N19" s="7">
-        <v>0</v>
+        <v>687</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>11</v>
+        <v>34</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>13</v>
+        <v>35</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2045,100 +2062,102 @@
         <v>3</v>
       </c>
       <c r="C20" s="7">
-        <v>0</v>
-      </c>
-      <c r="D20" s="7"/>
+        <v>5</v>
+      </c>
+      <c r="D20" s="7">
+        <v>1575</v>
+      </c>
       <c r="E20" s="7" t="s">
-        <v>10</v>
+        <v>36</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>10</v>
+        <v>36</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>10</v>
+        <v>36</v>
       </c>
       <c r="H20" s="7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I20" s="7">
-        <v>1171</v>
+        <v>1956</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>16</v>
+        <v>36</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>16</v>
+        <v>36</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>16</v>
+        <v>36</v>
       </c>
       <c r="M20" s="7">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="N20" s="7">
-        <v>1171</v>
+        <v>3531</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>16</v>
+        <v>36</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>16</v>
+        <v>36</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>16</v>
+        <v>36</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
-        <v>17</v>
+        <v>37</v>
       </c>
       <c r="B21" s="5">
         <v>2022</v>
       </c>
       <c r="C21" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D21" s="7">
-        <v>159</v>
+        <v>0</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="F21" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="H21" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I21" s="7">
-        <v>0</v>
+        <v>164</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>11</v>
+        <v>38</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>19</v>
+        <v>39</v>
       </c>
       <c r="M21" s="7">
         <v>1</v>
       </c>
       <c r="N21" s="7">
-        <v>159</v>
+        <v>164</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>21</v>
+        <v>41</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -2147,49 +2166,49 @@
         <v>2021</v>
       </c>
       <c r="C22" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D22" s="7">
-        <v>0</v>
+        <v>158</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>11</v>
+        <v>42</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>22</v>
+        <v>43</v>
       </c>
       <c r="H22" s="7">
         <v>2</v>
       </c>
       <c r="I22" s="7">
-        <v>318</v>
+        <v>6031</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>23</v>
+        <v>44</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>24</v>
+        <v>45</v>
       </c>
       <c r="M22" s="7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N22" s="7">
-        <v>318</v>
+        <v>6189</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>25</v>
+        <v>46</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>11</v>
+        <v>47</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>26</v>
+        <v>48</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2198,49 +2217,49 @@
         <v>2020</v>
       </c>
       <c r="C23" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D23" s="7">
-        <v>0</v>
+        <v>626</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>11</v>
+        <v>49</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>22</v>
+        <v>50</v>
       </c>
       <c r="H23" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I23" s="7">
-        <v>0</v>
+        <v>164</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>11</v>
+        <v>38</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>19</v>
+        <v>51</v>
       </c>
       <c r="M23" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N23" s="7">
-        <v>0</v>
+        <v>791</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>11</v>
+        <v>52</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>27</v>
+        <v>53</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2252,46 +2271,46 @@
         <v>1</v>
       </c>
       <c r="D24" s="7">
-        <v>634</v>
+        <v>164</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>28</v>
+        <v>54</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>14</v>
+        <v>55</v>
       </c>
       <c r="H24" s="7">
         <v>2</v>
       </c>
       <c r="I24" s="7">
-        <v>553</v>
+        <v>1725</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>29</v>
+        <v>56</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>30</v>
+        <v>57</v>
       </c>
       <c r="M24" s="7">
         <v>3</v>
       </c>
       <c r="N24" s="7">
-        <v>1188</v>
+        <v>1889</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>31</v>
+        <v>58</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>11</v>
+        <v>59</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>32</v>
+        <v>60</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -2300,49 +2319,49 @@
         <v>2018</v>
       </c>
       <c r="C25" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D25" s="7">
-        <v>0</v>
+        <v>4397</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>11</v>
+        <v>61</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>22</v>
+        <v>62</v>
       </c>
       <c r="H25" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I25" s="7">
-        <v>0</v>
+        <v>1155</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>11</v>
+        <v>63</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>19</v>
+        <v>64</v>
       </c>
       <c r="M25" s="7">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="N25" s="7">
-        <v>0</v>
+        <v>5553</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>11</v>
+        <v>65</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>12</v>
+        <v>66</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>27</v>
+        <v>67</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2351,49 +2370,49 @@
         <v>2017</v>
       </c>
       <c r="C26" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D26" s="7">
-        <v>913</v>
+        <v>0</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>33</v>
+        <v>10</v>
       </c>
       <c r="F26" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="H26" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I26" s="7">
-        <v>0</v>
+        <v>1087</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>11</v>
+        <v>68</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>19</v>
+        <v>69</v>
       </c>
       <c r="M26" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N26" s="7">
-        <v>913</v>
+        <v>1087</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>34</v>
+        <v>70</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>35</v>
+        <v>71</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2408,43 +2427,43 @@
         <v>0</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G27" s="7" t="s">
         <v>22</v>
       </c>
       <c r="H27" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I27" s="7">
-        <v>0</v>
+        <v>162</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>11</v>
+        <v>72</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>19</v>
+        <v>73</v>
       </c>
       <c r="M27" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N27" s="7">
-        <v>0</v>
+        <v>162</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>11</v>
+        <v>74</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>27</v>
+        <v>75</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -2459,43 +2478,43 @@
         <v>0</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G28" s="7" t="s">
         <v>22</v>
       </c>
       <c r="H28" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I28" s="7">
-        <v>0</v>
+        <v>1107</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>11</v>
+        <v>76</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>19</v>
+        <v>77</v>
       </c>
       <c r="M28" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N28" s="7">
-        <v>0</v>
+        <v>1107</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>11</v>
+        <v>78</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>27</v>
+        <v>79</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -2510,10 +2529,10 @@
         <v>0</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G29" s="7" t="s">
         <v>22</v>
@@ -2525,13 +2544,13 @@
         <v>0</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>19</v>
+        <v>80</v>
       </c>
       <c r="M29" s="7">
         <v>0</v>
@@ -2540,13 +2559,13 @@
         <v>0</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>27</v>
+        <v>81</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -2555,49 +2574,49 @@
         <v>2012</v>
       </c>
       <c r="C30" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D30" s="7">
-        <v>0</v>
+        <v>818</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>11</v>
+        <v>82</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>22</v>
+        <v>83</v>
       </c>
       <c r="H30" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I30" s="7">
-        <v>0</v>
+        <v>687</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>11</v>
+        <v>84</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>19</v>
+        <v>85</v>
       </c>
       <c r="M30" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N30" s="7">
-        <v>0</v>
+        <v>1505</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>11</v>
+        <v>86</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>27</v>
+        <v>87</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -2612,43 +2631,43 @@
         <v>0</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G31" s="7" t="s">
         <v>22</v>
       </c>
       <c r="H31" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I31" s="7">
-        <v>0</v>
+        <v>923</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>11</v>
+        <v>88</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>19</v>
+        <v>89</v>
       </c>
       <c r="M31" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N31" s="7">
-        <v>0</v>
+        <v>923</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>11</v>
+        <v>90</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>27</v>
+        <v>91</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -2663,43 +2682,43 @@
         <v>0</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G32" s="7" t="s">
         <v>22</v>
       </c>
       <c r="H32" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I32" s="7">
-        <v>0</v>
+        <v>2490</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>11</v>
+        <v>92</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>19</v>
+        <v>93</v>
       </c>
       <c r="M32" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N32" s="7">
-        <v>0</v>
+        <v>2490</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>11</v>
+        <v>94</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>27</v>
+        <v>95</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -2708,19 +2727,19 @@
         <v>2009</v>
       </c>
       <c r="C33" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D33" s="7">
-        <v>0</v>
+        <v>623</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>11</v>
+        <v>96</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>22</v>
+        <v>97</v>
       </c>
       <c r="H33" s="7">
         <v>0</v>
@@ -2729,28 +2748,28 @@
         <v>0</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>19</v>
+        <v>80</v>
       </c>
       <c r="M33" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N33" s="7">
-        <v>0</v>
+        <v>623</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>11</v>
+        <v>98</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>27</v>
+        <v>99</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -2759,19 +2778,19 @@
         <v>2008</v>
       </c>
       <c r="C34" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D34" s="7">
-        <v>0</v>
+        <v>160</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>11</v>
+        <v>100</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>22</v>
+        <v>101</v>
       </c>
       <c r="H34" s="7">
         <v>0</v>
@@ -2780,28 +2799,28 @@
         <v>0</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>19</v>
+        <v>80</v>
       </c>
       <c r="M34" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N34" s="7">
-        <v>0</v>
+        <v>160</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>11</v>
+        <v>102</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>27</v>
+        <v>103</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -2816,10 +2835,10 @@
         <v>0</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G35" s="7" t="s">
         <v>22</v>
@@ -2831,13 +2850,13 @@
         <v>0</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>19</v>
+        <v>80</v>
       </c>
       <c r="M35" s="7">
         <v>0</v>
@@ -2846,13 +2865,13 @@
         <v>0</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>27</v>
+        <v>81</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -2867,43 +2886,43 @@
         <v>0</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G36" s="7" t="s">
         <v>22</v>
       </c>
       <c r="H36" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I36" s="7">
-        <v>620</v>
+        <v>0</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>36</v>
+        <v>10</v>
       </c>
       <c r="K36" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>37</v>
+        <v>80</v>
       </c>
       <c r="M36" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N36" s="7">
-        <v>620</v>
+        <v>0</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>38</v>
+        <v>10</v>
       </c>
       <c r="P36" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>39</v>
+        <v>81</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -2912,72 +2931,72 @@
         <v>3</v>
       </c>
       <c r="C37" s="7">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="D37" s="7">
-        <v>1706</v>
+        <v>6947</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>16</v>
+        <v>36</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>16</v>
+        <v>36</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>16</v>
+        <v>36</v>
       </c>
       <c r="H37" s="7">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="I37" s="7">
-        <v>1491</v>
+        <v>15696</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>16</v>
+        <v>36</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>16</v>
+        <v>36</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>16</v>
+        <v>36</v>
       </c>
       <c r="M37" s="7">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="N37" s="7">
-        <v>3197</v>
+        <v>22643</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>16</v>
+        <v>36</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>16</v>
+        <v>36</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>16</v>
+        <v>36</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A38" s="1" t="s">
-        <v>40</v>
+        <v>104</v>
       </c>
       <c r="B38" s="5">
         <v>2022</v>
       </c>
       <c r="C38" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D38" s="7">
-        <v>159</v>
+        <v>0</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>41</v>
+        <v>10</v>
       </c>
       <c r="F38" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>42</v>
+        <v>105</v>
       </c>
       <c r="H38" s="7">
         <v>0</v>
@@ -2986,28 +3005,28 @@
         <v>0</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>27</v>
+        <v>106</v>
       </c>
       <c r="M38" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N38" s="7">
-        <v>159</v>
+        <v>0</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="P38" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>44</v>
+        <v>107</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -3016,49 +3035,49 @@
         <v>2021</v>
       </c>
       <c r="C39" s="7">
+        <v>1</v>
+      </c>
+      <c r="D39" s="7">
+        <v>163</v>
+      </c>
+      <c r="E39" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="F39" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="G39" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="H39" s="7">
+        <v>1</v>
+      </c>
+      <c r="I39" s="7">
+        <v>165</v>
+      </c>
+      <c r="J39" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="K39" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="L39" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="M39" s="7">
         <v>2</v>
       </c>
-      <c r="D39" s="7">
-        <v>2998</v>
-      </c>
-      <c r="E39" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="F39" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G39" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="H39" s="7">
-        <v>1</v>
-      </c>
-      <c r="I39" s="7">
-        <v>159</v>
-      </c>
-      <c r="J39" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="K39" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="L39" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="M39" s="7">
-        <v>3</v>
-      </c>
       <c r="N39" s="7">
-        <v>3156</v>
+        <v>328</v>
       </c>
       <c r="O39" s="7" t="s">
-        <v>49</v>
+        <v>112</v>
       </c>
       <c r="P39" s="7" t="s">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="Q39" s="7" t="s">
-        <v>51</v>
+        <v>113</v>
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
@@ -3067,49 +3086,49 @@
         <v>2020</v>
       </c>
       <c r="C40" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D40" s="7">
-        <v>159</v>
+        <v>0</v>
       </c>
       <c r="E40" s="7" t="s">
-        <v>41</v>
+        <v>10</v>
       </c>
       <c r="F40" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>52</v>
+        <v>105</v>
       </c>
       <c r="H40" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I40" s="7">
-        <v>605</v>
+        <v>0</v>
       </c>
       <c r="J40" s="7" t="s">
-        <v>53</v>
+        <v>10</v>
       </c>
       <c r="K40" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L40" s="7" t="s">
-        <v>54</v>
+        <v>106</v>
       </c>
       <c r="M40" s="7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N40" s="7">
-        <v>764</v>
+        <v>0</v>
       </c>
       <c r="O40" s="7" t="s">
-        <v>55</v>
+        <v>10</v>
       </c>
       <c r="P40" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q40" s="7" t="s">
-        <v>56</v>
+        <v>107</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
@@ -3118,49 +3137,49 @@
         <v>2019</v>
       </c>
       <c r="C41" s="7">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D41" s="7">
-        <v>1304</v>
+        <v>1927</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>57</v>
+        <v>114</v>
       </c>
       <c r="F41" s="7" t="s">
-        <v>11</v>
+        <v>115</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>58</v>
+        <v>116</v>
       </c>
       <c r="H41" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I41" s="7">
-        <v>159</v>
+        <v>0</v>
       </c>
       <c r="J41" s="7" t="s">
-        <v>59</v>
+        <v>10</v>
       </c>
       <c r="K41" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L41" s="7" t="s">
-        <v>60</v>
+        <v>106</v>
       </c>
       <c r="M41" s="7">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N41" s="7">
-        <v>1464</v>
+        <v>1928</v>
       </c>
       <c r="O41" s="7" t="s">
-        <v>61</v>
+        <v>117</v>
       </c>
       <c r="P41" s="7" t="s">
-        <v>62</v>
+        <v>118</v>
       </c>
       <c r="Q41" s="7" t="s">
-        <v>63</v>
+        <v>119</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
@@ -3172,46 +3191,46 @@
         <v>2</v>
       </c>
       <c r="D42" s="7">
-        <v>1050</v>
+        <v>327</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>64</v>
+        <v>120</v>
       </c>
       <c r="F42" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>65</v>
+        <v>121</v>
       </c>
       <c r="H42" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I42" s="7">
-        <v>3288</v>
+        <v>724</v>
       </c>
       <c r="J42" s="7" t="s">
-        <v>66</v>
+        <v>122</v>
       </c>
       <c r="K42" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="L42" s="7" t="s">
-        <v>67</v>
+        <v>123</v>
       </c>
       <c r="M42" s="7">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N42" s="7">
-        <v>4338</v>
+        <v>1051</v>
       </c>
       <c r="O42" s="7" t="s">
-        <v>68</v>
+        <v>124</v>
       </c>
       <c r="P42" s="7" t="s">
-        <v>69</v>
+        <v>125</v>
       </c>
       <c r="Q42" s="7" t="s">
-        <v>70</v>
+        <v>126</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
@@ -3220,19 +3239,19 @@
         <v>2017</v>
       </c>
       <c r="C43" s="7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D43" s="7">
-        <v>1065</v>
+        <v>0</v>
       </c>
       <c r="E43" s="7" t="s">
-        <v>71</v>
+        <v>10</v>
       </c>
       <c r="F43" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G43" s="7" t="s">
-        <v>72</v>
+        <v>105</v>
       </c>
       <c r="H43" s="7">
         <v>0</v>
@@ -3241,28 +3260,28 @@
         <v>0</v>
       </c>
       <c r="J43" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="K43" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="L43" s="7" t="s">
-        <v>27</v>
+        <v>106</v>
       </c>
       <c r="M43" s="7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N43" s="7">
-        <v>1065</v>
+        <v>0</v>
       </c>
       <c r="O43" s="7" t="s">
-        <v>73</v>
+        <v>10</v>
       </c>
       <c r="P43" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q43" s="7" t="s">
-        <v>74</v>
+        <v>107</v>
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.3">
@@ -3274,16 +3293,16 @@
         <v>1</v>
       </c>
       <c r="D44" s="7">
-        <v>159</v>
+        <v>391</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>41</v>
+        <v>127</v>
       </c>
       <c r="F44" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>75</v>
+        <v>128</v>
       </c>
       <c r="H44" s="7">
         <v>0</v>
@@ -3292,28 +3311,28 @@
         <v>0</v>
       </c>
       <c r="J44" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="K44" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="L44" s="7" t="s">
-        <v>27</v>
+        <v>106</v>
       </c>
       <c r="M44" s="7">
         <v>1</v>
       </c>
       <c r="N44" s="7">
-        <v>159</v>
+        <v>391</v>
       </c>
       <c r="O44" s="7" t="s">
-        <v>43</v>
+        <v>129</v>
       </c>
       <c r="P44" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="Q44" s="7" t="s">
-        <v>76</v>
+        <v>130</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
@@ -3322,19 +3341,19 @@
         <v>2014</v>
       </c>
       <c r="C45" s="7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D45" s="7">
-        <v>1100</v>
+        <v>0</v>
       </c>
       <c r="E45" s="7" t="s">
-        <v>77</v>
+        <v>10</v>
       </c>
       <c r="F45" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G45" s="7" t="s">
-        <v>78</v>
+        <v>105</v>
       </c>
       <c r="H45" s="7">
         <v>0</v>
@@ -3343,28 +3362,28 @@
         <v>0</v>
       </c>
       <c r="J45" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="K45" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="L45" s="7" t="s">
-        <v>27</v>
+        <v>106</v>
       </c>
       <c r="M45" s="7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N45" s="7">
-        <v>1100</v>
+        <v>0</v>
       </c>
       <c r="O45" s="7" t="s">
-        <v>79</v>
+        <v>10</v>
       </c>
       <c r="P45" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q45" s="7" t="s">
-        <v>80</v>
+        <v>107</v>
       </c>
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.3">
@@ -3379,43 +3398,43 @@
         <v>0</v>
       </c>
       <c r="E46" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F46" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G46" s="7" t="s">
-        <v>81</v>
+        <v>105</v>
       </c>
       <c r="H46" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I46" s="7">
-        <v>0</v>
+        <v>1149</v>
       </c>
       <c r="J46" s="7" t="s">
-        <v>11</v>
+        <v>131</v>
       </c>
       <c r="K46" s="7" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="L46" s="7" t="s">
-        <v>27</v>
+        <v>132</v>
       </c>
       <c r="M46" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N46" s="7">
-        <v>0</v>
+        <v>1149</v>
       </c>
       <c r="O46" s="7" t="s">
-        <v>11</v>
+        <v>133</v>
       </c>
       <c r="P46" s="7" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="Q46" s="7" t="s">
-        <v>82</v>
+        <v>134</v>
       </c>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.3">
@@ -3424,49 +3443,49 @@
         <v>2012</v>
       </c>
       <c r="C47" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D47" s="7">
-        <v>635</v>
+        <v>0</v>
       </c>
       <c r="E47" s="7" t="s">
-        <v>83</v>
+        <v>10</v>
       </c>
       <c r="F47" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G47" s="7" t="s">
-        <v>84</v>
+        <v>105</v>
       </c>
       <c r="H47" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I47" s="7">
-        <v>724</v>
+        <v>0</v>
       </c>
       <c r="J47" s="7" t="s">
-        <v>85</v>
+        <v>10</v>
       </c>
       <c r="K47" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L47" s="7" t="s">
-        <v>86</v>
+        <v>106</v>
       </c>
       <c r="M47" s="7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N47" s="7">
-        <v>1360</v>
+        <v>0</v>
       </c>
       <c r="O47" s="7" t="s">
-        <v>87</v>
+        <v>10</v>
       </c>
       <c r="P47" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q47" s="7" t="s">
-        <v>88</v>
+        <v>107</v>
       </c>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.3">
@@ -3475,19 +3494,19 @@
         <v>2011</v>
       </c>
       <c r="C48" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D48" s="7">
-        <v>906</v>
+        <v>0</v>
       </c>
       <c r="E48" s="7" t="s">
-        <v>89</v>
+        <v>10</v>
       </c>
       <c r="F48" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G48" s="7" t="s">
-        <v>90</v>
+        <v>105</v>
       </c>
       <c r="H48" s="7">
         <v>0</v>
@@ -3496,28 +3515,28 @@
         <v>0</v>
       </c>
       <c r="J48" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="K48" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="L48" s="7" t="s">
-        <v>27</v>
+        <v>106</v>
       </c>
       <c r="M48" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N48" s="7">
-        <v>906</v>
+        <v>0</v>
       </c>
       <c r="O48" s="7" t="s">
-        <v>91</v>
+        <v>10</v>
       </c>
       <c r="P48" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q48" s="7" t="s">
-        <v>92</v>
+        <v>107</v>
       </c>
     </row>
     <row r="49" spans="1:17" x14ac:dyDescent="0.3">
@@ -3526,49 +3545,49 @@
         <v>2010</v>
       </c>
       <c r="C49" s="7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D49" s="7">
-        <v>2287</v>
+        <v>0</v>
       </c>
       <c r="E49" s="7" t="s">
-        <v>93</v>
+        <v>10</v>
       </c>
       <c r="F49" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G49" s="7" t="s">
-        <v>94</v>
+        <v>105</v>
       </c>
       <c r="H49" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I49" s="7">
-        <v>0</v>
+        <v>163</v>
       </c>
       <c r="J49" s="7" t="s">
-        <v>11</v>
+        <v>135</v>
       </c>
       <c r="K49" s="7" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="L49" s="7" t="s">
-        <v>27</v>
+        <v>136</v>
       </c>
       <c r="M49" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N49" s="7">
-        <v>2287</v>
+        <v>163</v>
       </c>
       <c r="O49" s="7" t="s">
-        <v>95</v>
+        <v>137</v>
       </c>
       <c r="P49" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="Q49" s="7" t="s">
-        <v>96</v>
+        <v>138</v>
       </c>
     </row>
     <row r="50" spans="1:17" x14ac:dyDescent="0.3">
@@ -3583,43 +3602,43 @@
         <v>0</v>
       </c>
       <c r="E50" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F50" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G50" s="7" t="s">
-        <v>81</v>
+        <v>105</v>
       </c>
       <c r="H50" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I50" s="7">
-        <v>633</v>
+        <v>0</v>
       </c>
       <c r="J50" s="7" t="s">
-        <v>97</v>
+        <v>10</v>
       </c>
       <c r="K50" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L50" s="7" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
       <c r="M50" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N50" s="7">
-        <v>633</v>
+        <v>0</v>
       </c>
       <c r="O50" s="7" t="s">
-        <v>99</v>
+        <v>10</v>
       </c>
       <c r="P50" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q50" s="7" t="s">
-        <v>100</v>
+        <v>107</v>
       </c>
     </row>
     <row r="51" spans="1:17" x14ac:dyDescent="0.3">
@@ -3634,43 +3653,43 @@
         <v>0</v>
       </c>
       <c r="E51" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F51" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G51" s="7" t="s">
-        <v>81</v>
+        <v>105</v>
       </c>
       <c r="H51" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I51" s="7">
-        <v>159</v>
+        <v>0</v>
       </c>
       <c r="J51" s="7" t="s">
-        <v>59</v>
+        <v>10</v>
       </c>
       <c r="K51" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L51" s="7" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="M51" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N51" s="7">
-        <v>159</v>
+        <v>0</v>
       </c>
       <c r="O51" s="7" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="P51" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q51" s="7" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
     </row>
     <row r="52" spans="1:17" x14ac:dyDescent="0.3">
@@ -3679,19 +3698,19 @@
         <v>2007</v>
       </c>
       <c r="C52" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D52" s="7">
-        <v>0</v>
+        <v>530</v>
       </c>
       <c r="E52" s="7" t="s">
-        <v>11</v>
+        <v>92</v>
       </c>
       <c r="F52" s="7" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G52" s="7" t="s">
-        <v>81</v>
+        <v>139</v>
       </c>
       <c r="H52" s="7">
         <v>0</v>
@@ -3700,28 +3719,28 @@
         <v>0</v>
       </c>
       <c r="J52" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="K52" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="L52" s="7" t="s">
-        <v>27</v>
+        <v>106</v>
       </c>
       <c r="M52" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N52" s="7">
-        <v>0</v>
+        <v>530</v>
       </c>
       <c r="O52" s="7" t="s">
-        <v>11</v>
+        <v>140</v>
       </c>
       <c r="P52" s="7" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="Q52" s="7" t="s">
-        <v>82</v>
+        <v>141</v>
       </c>
     </row>
     <row r="53" spans="1:17" x14ac:dyDescent="0.3">
@@ -3736,13 +3755,13 @@
         <v>0</v>
       </c>
       <c r="E53" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F53" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G53" s="7" t="s">
-        <v>81</v>
+        <v>105</v>
       </c>
       <c r="H53" s="7">
         <v>0</v>
@@ -3751,13 +3770,13 @@
         <v>0</v>
       </c>
       <c r="J53" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="K53" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="L53" s="7" t="s">
-        <v>27</v>
+        <v>106</v>
       </c>
       <c r="M53" s="7">
         <v>0</v>
@@ -3766,13 +3785,13 @@
         <v>0</v>
       </c>
       <c r="O53" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="P53" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="Q53" s="7" t="s">
-        <v>82</v>
+        <v>107</v>
       </c>
     </row>
     <row r="54" spans="1:17" x14ac:dyDescent="0.3">
@@ -3781,54 +3800,54 @@
         <v>3</v>
       </c>
       <c r="C54" s="7">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D54" s="7">
-        <v>11823</v>
+        <v>3338</v>
       </c>
       <c r="E54" s="7" t="s">
-        <v>16</v>
+        <v>36</v>
       </c>
       <c r="F54" s="7" t="s">
-        <v>16</v>
+        <v>36</v>
       </c>
       <c r="G54" s="7" t="s">
-        <v>16</v>
+        <v>36</v>
       </c>
       <c r="H54" s="7">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="I54" s="7">
-        <v>5727</v>
+        <v>2200</v>
       </c>
       <c r="J54" s="7" t="s">
-        <v>16</v>
+        <v>36</v>
       </c>
       <c r="K54" s="7" t="s">
-        <v>16</v>
+        <v>36</v>
       </c>
       <c r="L54" s="7" t="s">
-        <v>16</v>
+        <v>36</v>
       </c>
       <c r="M54" s="7">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="N54" s="7">
-        <v>17550</v>
+        <v>5539</v>
       </c>
       <c r="O54" s="7" t="s">
-        <v>16</v>
+        <v>36</v>
       </c>
       <c r="P54" s="7" t="s">
-        <v>16</v>
+        <v>36</v>
       </c>
       <c r="Q54" s="7" t="s">
-        <v>16</v>
+        <v>36</v>
       </c>
     </row>
     <row r="55" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A55" s="1" t="s">
-        <v>103</v>
+        <v>3</v>
       </c>
       <c r="B55" s="5">
         <v>2022</v>
@@ -3840,43 +3859,43 @@
         <v>0</v>
       </c>
       <c r="E55" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F55" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G55" s="7" t="s">
-        <v>104</v>
+        <v>142</v>
       </c>
       <c r="H55" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I55" s="7">
-        <v>0</v>
+        <v>330</v>
       </c>
       <c r="J55" s="7" t="s">
-        <v>11</v>
+        <v>143</v>
       </c>
       <c r="K55" s="7" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="L55" s="7" t="s">
-        <v>105</v>
+        <v>144</v>
       </c>
       <c r="M55" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N55" s="7">
-        <v>0</v>
+        <v>330</v>
       </c>
       <c r="O55" s="7" t="s">
-        <v>11</v>
+        <v>145</v>
       </c>
       <c r="P55" s="7" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="Q55" s="7" t="s">
-        <v>106</v>
+        <v>146</v>
       </c>
     </row>
     <row r="56" spans="1:17" x14ac:dyDescent="0.3">
@@ -3885,49 +3904,49 @@
         <v>2021</v>
       </c>
       <c r="C56" s="7">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D56" s="7">
-        <v>159</v>
+        <v>645</v>
       </c>
       <c r="E56" s="7" t="s">
-        <v>107</v>
+        <v>147</v>
       </c>
       <c r="F56" s="7" t="s">
-        <v>11</v>
+        <v>148</v>
       </c>
       <c r="G56" s="7" t="s">
-        <v>108</v>
+        <v>149</v>
       </c>
       <c r="H56" s="7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I56" s="7">
-        <v>159</v>
+        <v>6196</v>
       </c>
       <c r="J56" s="7" t="s">
-        <v>109</v>
+        <v>150</v>
       </c>
       <c r="K56" s="7" t="s">
-        <v>11</v>
+        <v>151</v>
       </c>
       <c r="L56" s="7" t="s">
-        <v>110</v>
+        <v>152</v>
       </c>
       <c r="M56" s="7">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="N56" s="7">
-        <v>318</v>
+        <v>6842</v>
       </c>
       <c r="O56" s="7" t="s">
-        <v>111</v>
+        <v>153</v>
       </c>
       <c r="P56" s="7" t="s">
-        <v>11</v>
+        <v>154</v>
       </c>
       <c r="Q56" s="7" t="s">
-        <v>112</v>
+        <v>155</v>
       </c>
     </row>
     <row r="57" spans="1:17" x14ac:dyDescent="0.3">
@@ -3936,49 +3955,49 @@
         <v>2020</v>
       </c>
       <c r="C57" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D57" s="7">
-        <v>0</v>
+        <v>626</v>
       </c>
       <c r="E57" s="7" t="s">
-        <v>11</v>
+        <v>156</v>
       </c>
       <c r="F57" s="7" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G57" s="7" t="s">
-        <v>104</v>
+        <v>157</v>
       </c>
       <c r="H57" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I57" s="7">
-        <v>0</v>
+        <v>164</v>
       </c>
       <c r="J57" s="7" t="s">
-        <v>11</v>
+        <v>158</v>
       </c>
       <c r="K57" s="7" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="L57" s="7" t="s">
-        <v>105</v>
+        <v>159</v>
       </c>
       <c r="M57" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N57" s="7">
-        <v>0</v>
+        <v>791</v>
       </c>
       <c r="O57" s="7" t="s">
-        <v>11</v>
+        <v>160</v>
       </c>
       <c r="P57" s="7" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="Q57" s="7" t="s">
-        <v>106</v>
+        <v>161</v>
       </c>
     </row>
     <row r="58" spans="1:17" x14ac:dyDescent="0.3">
@@ -3987,49 +4006,49 @@
         <v>2019</v>
       </c>
       <c r="C58" s="7">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="D58" s="7">
-        <v>0</v>
+        <v>2655</v>
       </c>
       <c r="E58" s="7" t="s">
-        <v>11</v>
+        <v>162</v>
       </c>
       <c r="F58" s="7" t="s">
-        <v>12</v>
+        <v>163</v>
       </c>
       <c r="G58" s="7" t="s">
-        <v>104</v>
+        <v>164</v>
       </c>
       <c r="H58" s="7">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I58" s="7">
-        <v>1716</v>
+        <v>2407</v>
       </c>
       <c r="J58" s="7" t="s">
-        <v>113</v>
+        <v>165</v>
       </c>
       <c r="K58" s="7" t="s">
-        <v>114</v>
+        <v>166</v>
       </c>
       <c r="L58" s="7" t="s">
-        <v>115</v>
+        <v>167</v>
       </c>
       <c r="M58" s="7">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="N58" s="7">
-        <v>1717</v>
+        <v>5062</v>
       </c>
       <c r="O58" s="7" t="s">
-        <v>116</v>
+        <v>168</v>
       </c>
       <c r="P58" s="7" t="s">
-        <v>117</v>
+        <v>169</v>
       </c>
       <c r="Q58" s="7" t="s">
-        <v>118</v>
+        <v>170</v>
       </c>
     </row>
     <row r="59" spans="1:17" x14ac:dyDescent="0.3">
@@ -4038,49 +4057,49 @@
         <v>2018</v>
       </c>
       <c r="C59" s="7">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D59" s="7">
-        <v>674</v>
+        <v>4724</v>
       </c>
       <c r="E59" s="7" t="s">
-        <v>119</v>
+        <v>171</v>
       </c>
       <c r="F59" s="7" t="s">
-        <v>11</v>
+        <v>172</v>
       </c>
       <c r="G59" s="7" t="s">
-        <v>120</v>
+        <v>173</v>
       </c>
       <c r="H59" s="7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I59" s="7">
-        <v>318</v>
+        <v>1879</v>
       </c>
       <c r="J59" s="7" t="s">
-        <v>121</v>
+        <v>174</v>
       </c>
       <c r="K59" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="L59" s="7" t="s">
-        <v>122</v>
+        <v>175</v>
       </c>
       <c r="M59" s="7">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="N59" s="7">
-        <v>992</v>
+        <v>6603</v>
       </c>
       <c r="O59" s="7" t="s">
-        <v>123</v>
+        <v>176</v>
       </c>
       <c r="P59" s="7" t="s">
-        <v>124</v>
+        <v>177</v>
       </c>
       <c r="Q59" s="7" t="s">
-        <v>125</v>
+        <v>178</v>
       </c>
     </row>
     <row r="60" spans="1:17" x14ac:dyDescent="0.3">
@@ -4095,43 +4114,43 @@
         <v>0</v>
       </c>
       <c r="E60" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F60" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G60" s="7" t="s">
-        <v>104</v>
+        <v>142</v>
       </c>
       <c r="H60" s="7">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I60" s="7">
-        <v>0</v>
+        <v>2195</v>
       </c>
       <c r="J60" s="7" t="s">
-        <v>11</v>
+        <v>179</v>
       </c>
       <c r="K60" s="7" t="s">
-        <v>12</v>
+        <v>180</v>
       </c>
       <c r="L60" s="7" t="s">
-        <v>105</v>
+        <v>181</v>
       </c>
       <c r="M60" s="7">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="N60" s="7">
-        <v>0</v>
+        <v>2195</v>
       </c>
       <c r="O60" s="7" t="s">
-        <v>11</v>
+        <v>182</v>
       </c>
       <c r="P60" s="7" t="s">
-        <v>12</v>
+        <v>183</v>
       </c>
       <c r="Q60" s="7" t="s">
-        <v>106</v>
+        <v>184</v>
       </c>
     </row>
     <row r="61" spans="1:17" x14ac:dyDescent="0.3">
@@ -4140,49 +4159,49 @@
         <v>2015</v>
       </c>
       <c r="C61" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D61" s="7">
-        <v>0</v>
+        <v>391</v>
       </c>
       <c r="E61" s="7" t="s">
-        <v>11</v>
+        <v>185</v>
       </c>
       <c r="F61" s="7" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G61" s="7" t="s">
-        <v>104</v>
+        <v>186</v>
       </c>
       <c r="H61" s="7">
         <v>1</v>
       </c>
       <c r="I61" s="7">
-        <v>391</v>
+        <v>162</v>
       </c>
       <c r="J61" s="7" t="s">
-        <v>126</v>
+        <v>187</v>
       </c>
       <c r="K61" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="L61" s="7" t="s">
-        <v>127</v>
+        <v>188</v>
       </c>
       <c r="M61" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N61" s="7">
-        <v>391</v>
+        <v>553</v>
       </c>
       <c r="O61" s="7" t="s">
-        <v>128</v>
+        <v>189</v>
       </c>
       <c r="P61" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="Q61" s="7" t="s">
-        <v>129</v>
+        <v>118</v>
       </c>
     </row>
     <row r="62" spans="1:17" x14ac:dyDescent="0.3">
@@ -4197,43 +4216,43 @@
         <v>0</v>
       </c>
       <c r="E62" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F62" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G62" s="7" t="s">
-        <v>104</v>
+        <v>142</v>
       </c>
       <c r="H62" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I62" s="7">
-        <v>0</v>
+        <v>1107</v>
       </c>
       <c r="J62" s="7" t="s">
-        <v>11</v>
+        <v>190</v>
       </c>
       <c r="K62" s="7" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="L62" s="7" t="s">
-        <v>105</v>
+        <v>191</v>
       </c>
       <c r="M62" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N62" s="7">
-        <v>0</v>
+        <v>1107</v>
       </c>
       <c r="O62" s="7" t="s">
-        <v>11</v>
+        <v>52</v>
       </c>
       <c r="P62" s="7" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="Q62" s="7" t="s">
-        <v>106</v>
+        <v>192</v>
       </c>
     </row>
     <row r="63" spans="1:17" x14ac:dyDescent="0.3">
@@ -4242,49 +4261,49 @@
         <v>2013</v>
       </c>
       <c r="C63" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D63" s="7">
-        <v>1175</v>
+        <v>0</v>
       </c>
       <c r="E63" s="7" t="s">
-        <v>130</v>
+        <v>10</v>
       </c>
       <c r="F63" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G63" s="7" t="s">
-        <v>131</v>
+        <v>142</v>
       </c>
       <c r="H63" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I63" s="7">
-        <v>0</v>
+        <v>1149</v>
       </c>
       <c r="J63" s="7" t="s">
-        <v>11</v>
+        <v>193</v>
       </c>
       <c r="K63" s="7" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="L63" s="7" t="s">
-        <v>105</v>
+        <v>194</v>
       </c>
       <c r="M63" s="7">
         <v>1</v>
       </c>
       <c r="N63" s="7">
-        <v>1175</v>
+        <v>1149</v>
       </c>
       <c r="O63" s="7" t="s">
-        <v>132</v>
+        <v>195</v>
       </c>
       <c r="P63" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="Q63" s="7" t="s">
-        <v>133</v>
+        <v>196</v>
       </c>
     </row>
     <row r="64" spans="1:17" x14ac:dyDescent="0.3">
@@ -4293,49 +4312,49 @@
         <v>2012</v>
       </c>
       <c r="C64" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D64" s="7">
-        <v>0</v>
+        <v>818</v>
       </c>
       <c r="E64" s="7" t="s">
-        <v>11</v>
+        <v>197</v>
       </c>
       <c r="F64" s="7" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G64" s="7" t="s">
-        <v>104</v>
+        <v>198</v>
       </c>
       <c r="H64" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I64" s="7">
-        <v>0</v>
+        <v>687</v>
       </c>
       <c r="J64" s="7" t="s">
-        <v>11</v>
+        <v>199</v>
       </c>
       <c r="K64" s="7" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="L64" s="7" t="s">
-        <v>105</v>
+        <v>200</v>
       </c>
       <c r="M64" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N64" s="7">
-        <v>0</v>
+        <v>1505</v>
       </c>
       <c r="O64" s="7" t="s">
-        <v>11</v>
+        <v>201</v>
       </c>
       <c r="P64" s="7" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="Q64" s="7" t="s">
-        <v>106</v>
+        <v>202</v>
       </c>
     </row>
     <row r="65" spans="1:17" x14ac:dyDescent="0.3">
@@ -4350,43 +4369,43 @@
         <v>0</v>
       </c>
       <c r="E65" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F65" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G65" s="7" t="s">
-        <v>104</v>
+        <v>142</v>
       </c>
       <c r="H65" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I65" s="7">
-        <v>0</v>
+        <v>923</v>
       </c>
       <c r="J65" s="7" t="s">
-        <v>11</v>
+        <v>203</v>
       </c>
       <c r="K65" s="7" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="L65" s="7" t="s">
-        <v>105</v>
+        <v>204</v>
       </c>
       <c r="M65" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N65" s="7">
-        <v>0</v>
+        <v>923</v>
       </c>
       <c r="O65" s="7" t="s">
-        <v>11</v>
+        <v>205</v>
       </c>
       <c r="P65" s="7" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="Q65" s="7" t="s">
-        <v>106</v>
+        <v>206</v>
       </c>
     </row>
     <row r="66" spans="1:17" x14ac:dyDescent="0.3">
@@ -4395,49 +4414,49 @@
         <v>2010</v>
       </c>
       <c r="C66" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D66" s="7">
-        <v>160</v>
+        <v>0</v>
       </c>
       <c r="E66" s="7" t="s">
-        <v>134</v>
+        <v>10</v>
       </c>
       <c r="F66" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G66" s="7" t="s">
-        <v>135</v>
+        <v>142</v>
       </c>
       <c r="H66" s="7">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I66" s="7">
-        <v>0</v>
+        <v>2653</v>
       </c>
       <c r="J66" s="7" t="s">
-        <v>11</v>
+        <v>207</v>
       </c>
       <c r="K66" s="7" t="s">
-        <v>12</v>
+        <v>158</v>
       </c>
       <c r="L66" s="7" t="s">
-        <v>105</v>
+        <v>208</v>
       </c>
       <c r="M66" s="7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N66" s="7">
-        <v>160</v>
+        <v>2653</v>
       </c>
       <c r="O66" s="7" t="s">
-        <v>136</v>
+        <v>209</v>
       </c>
       <c r="P66" s="7" t="s">
-        <v>11</v>
+        <v>187</v>
       </c>
       <c r="Q66" s="7" t="s">
-        <v>137</v>
+        <v>210</v>
       </c>
     </row>
     <row r="67" spans="1:17" x14ac:dyDescent="0.3">
@@ -4446,19 +4465,19 @@
         <v>2009</v>
       </c>
       <c r="C67" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D67" s="7">
-        <v>0</v>
+        <v>623</v>
       </c>
       <c r="E67" s="7" t="s">
-        <v>11</v>
+        <v>211</v>
       </c>
       <c r="F67" s="7" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G67" s="7" t="s">
-        <v>104</v>
+        <v>212</v>
       </c>
       <c r="H67" s="7">
         <v>0</v>
@@ -4467,28 +4486,28 @@
         <v>0</v>
       </c>
       <c r="J67" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="K67" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="L67" s="7" t="s">
-        <v>105</v>
+        <v>213</v>
       </c>
       <c r="M67" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N67" s="7">
-        <v>0</v>
+        <v>623</v>
       </c>
       <c r="O67" s="7" t="s">
-        <v>11</v>
+        <v>214</v>
       </c>
       <c r="P67" s="7" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="Q67" s="7" t="s">
-        <v>106</v>
+        <v>215</v>
       </c>
     </row>
     <row r="68" spans="1:17" x14ac:dyDescent="0.3">
@@ -4497,19 +4516,19 @@
         <v>2008</v>
       </c>
       <c r="C68" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D68" s="7">
-        <v>0</v>
+        <v>160</v>
       </c>
       <c r="E68" s="7" t="s">
-        <v>11</v>
+        <v>216</v>
       </c>
       <c r="F68" s="7" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G68" s="7" t="s">
-        <v>104</v>
+        <v>140</v>
       </c>
       <c r="H68" s="7">
         <v>0</v>
@@ -4518,28 +4537,28 @@
         <v>0</v>
       </c>
       <c r="J68" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="K68" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="L68" s="7" t="s">
-        <v>105</v>
+        <v>213</v>
       </c>
       <c r="M68" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N68" s="7">
-        <v>0</v>
+        <v>160</v>
       </c>
       <c r="O68" s="7" t="s">
-        <v>11</v>
+        <v>217</v>
       </c>
       <c r="P68" s="7" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="Q68" s="7" t="s">
-        <v>106</v>
+        <v>218</v>
       </c>
     </row>
     <row r="69" spans="1:17" x14ac:dyDescent="0.3">
@@ -4548,49 +4567,49 @@
         <v>2007</v>
       </c>
       <c r="C69" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D69" s="7">
-        <v>0</v>
+        <v>530</v>
       </c>
       <c r="E69" s="7" t="s">
-        <v>11</v>
+        <v>219</v>
       </c>
       <c r="F69" s="7" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G69" s="7" t="s">
-        <v>104</v>
+        <v>220</v>
       </c>
       <c r="H69" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I69" s="7">
-        <v>570</v>
+        <v>0</v>
       </c>
       <c r="J69" s="7" t="s">
-        <v>138</v>
+        <v>10</v>
       </c>
       <c r="K69" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L69" s="7" t="s">
-        <v>139</v>
+        <v>213</v>
       </c>
       <c r="M69" s="7">
         <v>1</v>
       </c>
       <c r="N69" s="7">
-        <v>570</v>
+        <v>530</v>
       </c>
       <c r="O69" s="7" t="s">
-        <v>140</v>
+        <v>221</v>
       </c>
       <c r="P69" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="Q69" s="7" t="s">
-        <v>130</v>
+        <v>222</v>
       </c>
     </row>
     <row r="70" spans="1:17" x14ac:dyDescent="0.3">
@@ -4599,19 +4618,19 @@
         <v>2006</v>
       </c>
       <c r="C70" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D70" s="7">
-        <v>0</v>
+        <v>687</v>
       </c>
       <c r="E70" s="7" t="s">
-        <v>11</v>
+        <v>193</v>
       </c>
       <c r="F70" s="7" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G70" s="7" t="s">
-        <v>104</v>
+        <v>223</v>
       </c>
       <c r="H70" s="7">
         <v>0</v>
@@ -4620,28 +4639,28 @@
         <v>0</v>
       </c>
       <c r="J70" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="K70" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="L70" s="7" t="s">
-        <v>105</v>
+        <v>213</v>
       </c>
       <c r="M70" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N70" s="7">
-        <v>0</v>
+        <v>687</v>
       </c>
       <c r="O70" s="7" t="s">
-        <v>11</v>
+        <v>224</v>
       </c>
       <c r="P70" s="7" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="Q70" s="7" t="s">
-        <v>106</v>
+        <v>225</v>
       </c>
     </row>
     <row r="71" spans="1:17" x14ac:dyDescent="0.3">
@@ -4650,930 +4669,60 @@
         <v>3</v>
       </c>
       <c r="C71" s="7">
-        <v>4</v>
+        <v>22</v>
       </c>
       <c r="D71" s="7">
-        <v>2168</v>
+        <v>11860</v>
       </c>
       <c r="E71" s="7" t="s">
-        <v>16</v>
+        <v>36</v>
       </c>
       <c r="F71" s="7" t="s">
-        <v>16</v>
+        <v>36</v>
       </c>
       <c r="G71" s="7" t="s">
-        <v>16</v>
+        <v>36</v>
       </c>
       <c r="H71" s="7">
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="I71" s="7">
-        <v>3153</v>
+        <v>19852</v>
       </c>
       <c r="J71" s="7" t="s">
-        <v>16</v>
+        <v>36</v>
       </c>
       <c r="K71" s="7" t="s">
-        <v>16</v>
+        <v>36</v>
       </c>
       <c r="L71" s="7" t="s">
-        <v>16</v>
+        <v>36</v>
       </c>
       <c r="M71" s="7">
-        <v>13</v>
+        <v>46</v>
       </c>
       <c r="N71" s="7">
-        <v>5321</v>
+        <v>31713</v>
       </c>
       <c r="O71" s="7" t="s">
-        <v>16</v>
+        <v>36</v>
       </c>
       <c r="P71" s="7" t="s">
-        <v>16</v>
+        <v>36</v>
       </c>
       <c r="Q71" s="7" t="s">
-        <v>16</v>
+        <v>36</v>
       </c>
     </row>
     <row r="72" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A72" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B72" s="5">
-        <v>2022</v>
-      </c>
-      <c r="C72" s="7">
-        <v>2</v>
-      </c>
-      <c r="D72" s="7">
-        <v>318</v>
-      </c>
-      <c r="E72" s="7" t="s">
-        <v>141</v>
-      </c>
-      <c r="F72" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G72" s="7" t="s">
-        <v>142</v>
-      </c>
-      <c r="H72" s="7">
-        <v>0</v>
-      </c>
-      <c r="I72" s="7">
-        <v>0</v>
-      </c>
-      <c r="J72" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="K72" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="L72" s="7" t="s">
-        <v>143</v>
-      </c>
-      <c r="M72" s="7">
-        <v>2</v>
-      </c>
-      <c r="N72" s="7">
-        <v>318</v>
-      </c>
-      <c r="O72" s="7" t="s">
-        <v>144</v>
-      </c>
-      <c r="P72" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q72" s="7" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="73" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A73" s="1"/>
-      <c r="B73" s="5">
-        <v>2021</v>
-      </c>
-      <c r="C73" s="7">
-        <v>3</v>
-      </c>
-      <c r="D73" s="7">
-        <v>3157</v>
-      </c>
-      <c r="E73" s="7" t="s">
-        <v>146</v>
-      </c>
-      <c r="F73" s="7" t="s">
-        <v>144</v>
-      </c>
-      <c r="G73" s="7" t="s">
-        <v>147</v>
-      </c>
-      <c r="H73" s="7">
-        <v>4</v>
-      </c>
-      <c r="I73" s="7">
-        <v>635</v>
-      </c>
-      <c r="J73" s="7" t="s">
-        <v>148</v>
-      </c>
-      <c r="K73" s="7" t="s">
-        <v>149</v>
-      </c>
-      <c r="L73" s="7" t="s">
-        <v>150</v>
-      </c>
-      <c r="M73" s="7">
-        <v>7</v>
-      </c>
-      <c r="N73" s="7">
-        <v>3792</v>
-      </c>
-      <c r="O73" s="7" t="s">
-        <v>151</v>
-      </c>
-      <c r="P73" s="7" t="s">
-        <v>152</v>
-      </c>
-      <c r="Q73" s="7" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="74" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A74" s="1"/>
-      <c r="B74" s="5">
-        <v>2020</v>
-      </c>
-      <c r="C74" s="7">
-        <v>1</v>
-      </c>
-      <c r="D74" s="7">
-        <v>159</v>
-      </c>
-      <c r="E74" s="7" t="s">
-        <v>154</v>
-      </c>
-      <c r="F74" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G74" s="7" t="s">
-        <v>155</v>
-      </c>
-      <c r="H74" s="7">
-        <v>1</v>
-      </c>
-      <c r="I74" s="7">
-        <v>605</v>
-      </c>
-      <c r="J74" s="7" t="s">
-        <v>156</v>
-      </c>
-      <c r="K74" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="L74" s="7" t="s">
-        <v>157</v>
-      </c>
-      <c r="M74" s="7">
-        <v>2</v>
-      </c>
-      <c r="N74" s="7">
-        <v>764</v>
-      </c>
-      <c r="O74" s="7" t="s">
-        <v>158</v>
-      </c>
-      <c r="P74" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q74" s="7" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="75" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A75" s="1"/>
-      <c r="B75" s="5">
-        <v>2019</v>
-      </c>
-      <c r="C75" s="7">
-        <v>3</v>
-      </c>
-      <c r="D75" s="7">
-        <v>1938</v>
-      </c>
-      <c r="E75" s="7" t="s">
-        <v>160</v>
-      </c>
-      <c r="F75" s="7" t="s">
-        <v>161</v>
-      </c>
-      <c r="G75" s="7" t="s">
-        <v>162</v>
-      </c>
-      <c r="H75" s="7">
-        <v>7</v>
-      </c>
-      <c r="I75" s="7">
-        <v>2429</v>
-      </c>
-      <c r="J75" s="7" t="s">
-        <v>163</v>
-      </c>
-      <c r="K75" s="7" t="s">
-        <v>164</v>
-      </c>
-      <c r="L75" s="7" t="s">
-        <v>165</v>
-      </c>
-      <c r="M75" s="7">
-        <v>10</v>
-      </c>
-      <c r="N75" s="7">
-        <v>4368</v>
-      </c>
-      <c r="O75" s="7" t="s">
-        <v>166</v>
-      </c>
-      <c r="P75" s="7" t="s">
-        <v>167</v>
-      </c>
-      <c r="Q75" s="7" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="76" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A76" s="1"/>
-      <c r="B76" s="5">
-        <v>2018</v>
-      </c>
-      <c r="C76" s="7">
-        <v>3</v>
-      </c>
-      <c r="D76" s="7">
-        <v>1724</v>
-      </c>
-      <c r="E76" s="7" t="s">
-        <v>169</v>
-      </c>
-      <c r="F76" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G76" s="7" t="s">
-        <v>170</v>
-      </c>
-      <c r="H76" s="7">
-        <v>4</v>
-      </c>
-      <c r="I76" s="7">
-        <v>3606</v>
-      </c>
-      <c r="J76" s="7" t="s">
-        <v>171</v>
-      </c>
-      <c r="K76" s="7" t="s">
-        <v>172</v>
-      </c>
-      <c r="L76" s="7" t="s">
-        <v>173</v>
-      </c>
-      <c r="M76" s="7">
-        <v>7</v>
-      </c>
-      <c r="N76" s="7">
-        <v>5330</v>
-      </c>
-      <c r="O76" s="7" t="s">
-        <v>174</v>
-      </c>
-      <c r="P76" s="7" t="s">
-        <v>175</v>
-      </c>
-      <c r="Q76" s="7" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="77" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A77" s="1"/>
-      <c r="B77" s="5">
-        <v>2017</v>
-      </c>
-      <c r="C77" s="7">
-        <v>3</v>
-      </c>
-      <c r="D77" s="7">
-        <v>1977</v>
-      </c>
-      <c r="E77" s="7" t="s">
-        <v>177</v>
-      </c>
-      <c r="F77" s="7" t="s">
-        <v>178</v>
-      </c>
-      <c r="G77" s="7" t="s">
-        <v>179</v>
-      </c>
-      <c r="H77" s="7">
-        <v>1</v>
-      </c>
-      <c r="I77" s="7">
-        <v>1171</v>
-      </c>
-      <c r="J77" s="7" t="s">
-        <v>180</v>
-      </c>
-      <c r="K77" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="L77" s="7" t="s">
-        <v>181</v>
-      </c>
-      <c r="M77" s="7">
-        <v>4</v>
-      </c>
-      <c r="N77" s="7">
-        <v>3148</v>
-      </c>
-      <c r="O77" s="7" t="s">
-        <v>182</v>
-      </c>
-      <c r="P77" s="7" t="s">
-        <v>183</v>
-      </c>
-      <c r="Q77" s="7" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="78" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A78" s="1"/>
-      <c r="B78" s="5">
-        <v>2015</v>
-      </c>
-      <c r="C78" s="7">
-        <v>1</v>
-      </c>
-      <c r="D78" s="7">
-        <v>159</v>
-      </c>
-      <c r="E78" s="7" t="s">
-        <v>154</v>
-      </c>
-      <c r="F78" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G78" s="7" t="s">
-        <v>185</v>
-      </c>
-      <c r="H78" s="7">
-        <v>1</v>
-      </c>
-      <c r="I78" s="7">
-        <v>391</v>
-      </c>
-      <c r="J78" s="7" t="s">
-        <v>186</v>
-      </c>
-      <c r="K78" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="L78" s="7" t="s">
-        <v>187</v>
-      </c>
-      <c r="M78" s="7">
-        <v>2</v>
-      </c>
-      <c r="N78" s="7">
-        <v>550</v>
-      </c>
-      <c r="O78" s="7" t="s">
-        <v>188</v>
-      </c>
-      <c r="P78" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q78" s="7" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="79" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A79" s="1"/>
-      <c r="B79" s="5">
-        <v>2014</v>
-      </c>
-      <c r="C79" s="7">
-        <v>2</v>
-      </c>
-      <c r="D79" s="7">
-        <v>1100</v>
-      </c>
-      <c r="E79" s="7" t="s">
-        <v>190</v>
-      </c>
-      <c r="F79" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G79" s="7" t="s">
-        <v>191</v>
-      </c>
-      <c r="H79" s="7">
-        <v>0</v>
-      </c>
-      <c r="I79" s="7">
-        <v>0</v>
-      </c>
-      <c r="J79" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="K79" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="L79" s="7" t="s">
-        <v>143</v>
-      </c>
-      <c r="M79" s="7">
-        <v>2</v>
-      </c>
-      <c r="N79" s="7">
-        <v>1100</v>
-      </c>
-      <c r="O79" s="7" t="s">
-        <v>192</v>
-      </c>
-      <c r="P79" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q79" s="7" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="80" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A80" s="1"/>
-      <c r="B80" s="5">
-        <v>2013</v>
-      </c>
-      <c r="C80" s="7">
-        <v>1</v>
-      </c>
-      <c r="D80" s="7">
-        <v>1175</v>
-      </c>
-      <c r="E80" s="7" t="s">
-        <v>194</v>
-      </c>
-      <c r="F80" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G80" s="7" t="s">
-        <v>195</v>
-      </c>
-      <c r="H80" s="7">
-        <v>0</v>
-      </c>
-      <c r="I80" s="7">
-        <v>0</v>
-      </c>
-      <c r="J80" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="K80" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="L80" s="7" t="s">
-        <v>143</v>
-      </c>
-      <c r="M80" s="7">
-        <v>1</v>
-      </c>
-      <c r="N80" s="7">
-        <v>1175</v>
-      </c>
-      <c r="O80" s="7" t="s">
-        <v>196</v>
-      </c>
-      <c r="P80" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q80" s="7" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="81" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A81" s="1"/>
-      <c r="B81" s="5">
-        <v>2012</v>
-      </c>
-      <c r="C81" s="7">
-        <v>1</v>
-      </c>
-      <c r="D81" s="7">
-        <v>635</v>
-      </c>
-      <c r="E81" s="7" t="s">
-        <v>198</v>
-      </c>
-      <c r="F81" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G81" s="7" t="s">
-        <v>199</v>
-      </c>
-      <c r="H81" s="7">
-        <v>1</v>
-      </c>
-      <c r="I81" s="7">
-        <v>725</v>
-      </c>
-      <c r="J81" s="7" t="s">
-        <v>200</v>
-      </c>
-      <c r="K81" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="L81" s="7" t="s">
-        <v>201</v>
-      </c>
-      <c r="M81" s="7">
-        <v>2</v>
-      </c>
-      <c r="N81" s="7">
-        <v>1360</v>
-      </c>
-      <c r="O81" s="7" t="s">
-        <v>202</v>
-      </c>
-      <c r="P81" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q81" s="7" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="82" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A82" s="1"/>
-      <c r="B82" s="5">
-        <v>2011</v>
-      </c>
-      <c r="C82" s="7">
-        <v>1</v>
-      </c>
-      <c r="D82" s="7">
-        <v>906</v>
-      </c>
-      <c r="E82" s="7" t="s">
-        <v>204</v>
-      </c>
-      <c r="F82" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G82" s="7" t="s">
-        <v>205</v>
-      </c>
-      <c r="H82" s="7">
-        <v>0</v>
-      </c>
-      <c r="I82" s="7">
-        <v>0</v>
-      </c>
-      <c r="J82" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="K82" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="L82" s="7" t="s">
-        <v>143</v>
-      </c>
-      <c r="M82" s="7">
-        <v>1</v>
-      </c>
-      <c r="N82" s="7">
-        <v>906</v>
-      </c>
-      <c r="O82" s="7" t="s">
-        <v>206</v>
-      </c>
-      <c r="P82" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q82" s="7" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="83" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A83" s="1"/>
-      <c r="B83" s="5">
-        <v>2010</v>
-      </c>
-      <c r="C83" s="7">
-        <v>3</v>
-      </c>
-      <c r="D83" s="7">
-        <v>2447</v>
-      </c>
-      <c r="E83" s="7" t="s">
-        <v>208</v>
-      </c>
-      <c r="F83" s="7" t="s">
-        <v>209</v>
-      </c>
-      <c r="G83" s="7" t="s">
-        <v>210</v>
-      </c>
-      <c r="H83" s="7">
-        <v>0</v>
-      </c>
-      <c r="I83" s="7">
-        <v>0</v>
-      </c>
-      <c r="J83" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="K83" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="L83" s="7" t="s">
-        <v>143</v>
-      </c>
-      <c r="M83" s="7">
-        <v>3</v>
-      </c>
-      <c r="N83" s="7">
-        <v>2447</v>
-      </c>
-      <c r="O83" s="7" t="s">
-        <v>211</v>
-      </c>
-      <c r="P83" s="7" t="s">
-        <v>212</v>
-      </c>
-      <c r="Q83" s="7" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="84" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A84" s="1"/>
-      <c r="B84" s="5">
-        <v>2009</v>
-      </c>
-      <c r="C84" s="7">
-        <v>0</v>
-      </c>
-      <c r="D84" s="7">
-        <v>0</v>
-      </c>
-      <c r="E84" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="F84" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="G84" s="7" t="s">
-        <v>214</v>
-      </c>
-      <c r="H84" s="7">
-        <v>1</v>
-      </c>
-      <c r="I84" s="7">
-        <v>633</v>
-      </c>
-      <c r="J84" s="7" t="s">
-        <v>215</v>
-      </c>
-      <c r="K84" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="L84" s="7" t="s">
-        <v>216</v>
-      </c>
-      <c r="M84" s="7">
-        <v>1</v>
-      </c>
-      <c r="N84" s="7">
-        <v>633</v>
-      </c>
-      <c r="O84" s="7" t="s">
-        <v>217</v>
-      </c>
-      <c r="P84" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q84" s="7" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="85" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A85" s="1"/>
-      <c r="B85" s="5">
-        <v>2008</v>
-      </c>
-      <c r="C85" s="7">
-        <v>0</v>
-      </c>
-      <c r="D85" s="7">
-        <v>0</v>
-      </c>
-      <c r="E85" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="F85" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="G85" s="7" t="s">
-        <v>214</v>
-      </c>
-      <c r="H85" s="7">
-        <v>1</v>
-      </c>
-      <c r="I85" s="7">
-        <v>159</v>
-      </c>
-      <c r="J85" s="7" t="s">
-        <v>219</v>
-      </c>
-      <c r="K85" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="L85" s="7" t="s">
-        <v>220</v>
-      </c>
-      <c r="M85" s="7">
-        <v>1</v>
-      </c>
-      <c r="N85" s="7">
-        <v>159</v>
-      </c>
-      <c r="O85" s="7" t="s">
-        <v>221</v>
-      </c>
-      <c r="P85" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q85" s="7" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="86" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A86" s="1"/>
-      <c r="B86" s="5">
-        <v>2007</v>
-      </c>
-      <c r="C86" s="7">
-        <v>0</v>
-      </c>
-      <c r="D86" s="7">
-        <v>0</v>
-      </c>
-      <c r="E86" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="F86" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="G86" s="7" t="s">
-        <v>214</v>
-      </c>
-      <c r="H86" s="7">
-        <v>1</v>
-      </c>
-      <c r="I86" s="7">
-        <v>570</v>
-      </c>
-      <c r="J86" s="7" t="s">
-        <v>223</v>
-      </c>
-      <c r="K86" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="L86" s="7" t="s">
-        <v>224</v>
-      </c>
-      <c r="M86" s="7">
-        <v>1</v>
-      </c>
-      <c r="N86" s="7">
-        <v>570</v>
-      </c>
-      <c r="O86" s="7" t="s">
-        <v>225</v>
-      </c>
-      <c r="P86" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q86" s="7" t="s">
+      <c r="A72" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="87" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A87" s="1"/>
-      <c r="B87" s="5">
-        <v>2006</v>
-      </c>
-      <c r="C87" s="7">
-        <v>0</v>
-      </c>
-      <c r="D87" s="7">
-        <v>0</v>
-      </c>
-      <c r="E87" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="F87" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="G87" s="7" t="s">
-        <v>214</v>
-      </c>
-      <c r="H87" s="7">
-        <v>1</v>
-      </c>
-      <c r="I87" s="7">
-        <v>620</v>
-      </c>
-      <c r="J87" s="7" t="s">
-        <v>227</v>
-      </c>
-      <c r="K87" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="L87" s="7" t="s">
-        <v>228</v>
-      </c>
-      <c r="M87" s="7">
-        <v>1</v>
-      </c>
-      <c r="N87" s="7">
-        <v>620</v>
-      </c>
-      <c r="O87" s="7" t="s">
-        <v>229</v>
-      </c>
-      <c r="P87" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q87" s="7" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="88" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A88" s="1"/>
-      <c r="B88" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C88" s="7">
-        <v>24</v>
-      </c>
-      <c r="D88" s="7">
-        <v>15696</v>
-      </c>
-      <c r="E88" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="F88" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="G88" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="H88" s="7">
-        <v>23</v>
-      </c>
-      <c r="I88" s="7">
-        <v>11543</v>
-      </c>
-      <c r="J88" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="K88" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="L88" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="M88" s="7">
-        <v>47</v>
-      </c>
-      <c r="N88" s="7">
-        <v>27239</v>
-      </c>
-      <c r="O88" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="P88" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q88" s="7" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="89" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A89" t="s">
-        <v>231</v>
-      </c>
-    </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="8">
     <mergeCell ref="A38:A54"/>
     <mergeCell ref="A55:A71"/>
-    <mergeCell ref="A72:A88"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
